--- a/Excel_Exercice03_FonctionsMathematiques_Amine_F.xlsx
+++ b/Excel_Exercice03_FonctionsMathematiques_Amine_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_afanid_etu_cvm_qc_ca/Documents/outils-gestion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_afanid_etu_cvm_qc_ca/Documents/outils-gestion/Github/Remises_C13_Amine_Fanid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="730" documentId="8_{D7BA958E-83DD-4D35-96E5-51DA106B26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C6D9EE-F0C6-46A0-A60C-5C45AF14E084}"/>
+  <xr:revisionPtr revIDLastSave="753" documentId="8_{D7BA958E-83DD-4D35-96E5-51DA106B26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23C7B103-6F46-4EA0-8039-57F395FDAE06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F34C210F-037B-45C2-B682-A42FD284E527}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F34C210F-037B-45C2-B682-A42FD284E527}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonctions mathématiques" sheetId="1" r:id="rId1"/>
@@ -4328,6 +4328,57 @@
     <xf numFmtId="0" fontId="47" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="74" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="78" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="76" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="42" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="42" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -4404,30 +4455,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4475,33 +4502,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="74" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="78" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="76" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="42" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="42" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8530,7 +8530,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401640"/>
@@ -8556,7 +8556,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401248"/>
@@ -8574,7 +8574,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8662,7 +8662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12685,7 +12685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1772795520"/>
@@ -12747,7 +12747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1772795104"/>
@@ -12799,7 +12799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12829,7 +12829,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14872,7 +14872,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142439888"/>
@@ -14900,7 +14900,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143403992"/>
@@ -14920,7 +14920,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15008,7 +15008,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15061,307 +15061,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>-6.2830000000000004</c:v>
+                  <c:v>-6.2831853071795862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.157</c:v>
+                  <c:v>-6.1575216010359943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0309999999999997</c:v>
+                  <c:v>-6.0318578948924024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.9049999999999994</c:v>
+                  <c:v>-5.9061941887488105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.778999999999999</c:v>
+                  <c:v>-5.7805304826052186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.6529999999999987</c:v>
+                  <c:v>-5.6548667764616267</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.5269999999999984</c:v>
+                  <c:v>-5.5292030703180348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.400999999999998</c:v>
+                  <c:v>-5.4035393641744429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.2749999999999977</c:v>
+                  <c:v>-5.277875658030851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.1489999999999974</c:v>
+                  <c:v>-5.1522119518872591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.022999999999997</c:v>
+                  <c:v>-5.0265482457436672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.8969999999999967</c:v>
+                  <c:v>-4.9008845396000753</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.7709999999999964</c:v>
+                  <c:v>-4.7752208334564834</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.644999999999996</c:v>
+                  <c:v>-4.6495571273128915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.5189999999999957</c:v>
+                  <c:v>-4.5238934211692996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.3929999999999954</c:v>
+                  <c:v>-4.3982297150257077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.266999999999995</c:v>
+                  <c:v>-4.2725660088821158</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.1409999999999947</c:v>
+                  <c:v>-4.1469023027385239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.0149999999999944</c:v>
+                  <c:v>-4.021238596594932</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.8889999999999945</c:v>
+                  <c:v>-3.8955748904513401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.7629999999999946</c:v>
+                  <c:v>-3.7699111843077482</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.6369999999999947</c:v>
+                  <c:v>-3.6442474781641563</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.5109999999999948</c:v>
+                  <c:v>-3.5185837720205644</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.3849999999999949</c:v>
+                  <c:v>-3.3929200658769725</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.258999999999995</c:v>
+                  <c:v>-3.2672563597333806</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.1329999999999951</c:v>
+                  <c:v>-3.1415926535897887</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.0069999999999952</c:v>
+                  <c:v>-3.0159289474461968</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.8809999999999953</c:v>
+                  <c:v>-2.8902652413026049</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.7549999999999955</c:v>
+                  <c:v>-2.764601535159013</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.6289999999999956</c:v>
+                  <c:v>-2.6389378290154211</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.5029999999999957</c:v>
+                  <c:v>-2.5132741228718292</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.3769999999999958</c:v>
+                  <c:v>-2.3876104167282373</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.2509999999999959</c:v>
+                  <c:v>-2.2619467105846454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.124999999999996</c:v>
+                  <c:v>-2.1362830044410535</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.9989999999999961</c:v>
+                  <c:v>-2.0106192982974616</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.8729999999999962</c:v>
+                  <c:v>-1.8849555921538699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7469999999999963</c:v>
+                  <c:v>-1.7592918860102782</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.6209999999999964</c:v>
+                  <c:v>-1.6336281798666865</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.4949999999999966</c:v>
+                  <c:v>-1.5079644737230948</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.3689999999999967</c:v>
+                  <c:v>-1.3823007675795032</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.2429999999999968</c:v>
+                  <c:v>-1.2566370614359115</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.1169999999999969</c:v>
+                  <c:v>-1.1309733552923198</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.99099999999999688</c:v>
+                  <c:v>-1.0053096491487281</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.86499999999999688</c:v>
+                  <c:v>-0.87964594300513643</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.73899999999999688</c:v>
+                  <c:v>-0.75398223686154475</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.61299999999999688</c:v>
+                  <c:v>-0.62831853071795307</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.48699999999999688</c:v>
+                  <c:v>-0.50265482457436139</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.36099999999999688</c:v>
+                  <c:v>-0.37699111843076966</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23499999999999688</c:v>
+                  <c:v>-0.25132741228717792</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10899999999999688</c:v>
+                  <c:v>-0.12566370614358618</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7000000000003124E-2</c:v>
+                  <c:v>5.5511151231257827E-15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.14300000000000312</c:v>
+                  <c:v>0.12566370614359729</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.26900000000000313</c:v>
+                  <c:v>0.25132741228718902</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.39500000000000313</c:v>
+                  <c:v>0.37699111843078076</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.52100000000000313</c:v>
+                  <c:v>0.50265482457437249</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.64700000000000313</c:v>
+                  <c:v>0.62831853071796417</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.77300000000000313</c:v>
+                  <c:v>0.75398223686155585</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.89900000000000313</c:v>
+                  <c:v>0.87964594300514753</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.025000000000003</c:v>
+                  <c:v>1.0053096491487392</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1510000000000029</c:v>
+                  <c:v>1.1309733552923309</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2770000000000028</c:v>
+                  <c:v>1.2566370614359226</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.4030000000000027</c:v>
+                  <c:v>1.3823007675795143</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5290000000000026</c:v>
+                  <c:v>1.5079644737231059</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6550000000000025</c:v>
+                  <c:v>1.6336281798666976</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.7810000000000024</c:v>
+                  <c:v>1.7592918860102893</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9070000000000022</c:v>
+                  <c:v>1.884955592153881</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0330000000000021</c:v>
+                  <c:v>2.0106192982974727</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.159000000000002</c:v>
+                  <c:v>2.1362830044410646</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.2850000000000019</c:v>
+                  <c:v>2.2619467105846565</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4110000000000018</c:v>
+                  <c:v>2.3876104167282484</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.5370000000000017</c:v>
+                  <c:v>2.5132741228718403</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.6630000000000016</c:v>
+                  <c:v>2.6389378290154322</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7890000000000015</c:v>
+                  <c:v>2.7646015351590241</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9150000000000014</c:v>
+                  <c:v>2.890265241302616</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0410000000000013</c:v>
+                  <c:v>3.0159289474462079</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.1670000000000011</c:v>
+                  <c:v>3.1415926535897998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.293000000000001</c:v>
+                  <c:v>3.2672563597333917</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.4190000000000009</c:v>
+                  <c:v>3.3929200658769836</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.5450000000000008</c:v>
+                  <c:v>3.5185837720205755</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.6710000000000007</c:v>
+                  <c:v>3.6442474781641674</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.7970000000000006</c:v>
+                  <c:v>3.7699111843077593</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.9230000000000005</c:v>
+                  <c:v>3.8955748904513512</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.0490000000000004</c:v>
+                  <c:v>4.0212385965949426</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.1750000000000007</c:v>
+                  <c:v>4.1469023027385346</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.301000000000001</c:v>
+                  <c:v>4.2725660088821265</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4270000000000014</c:v>
+                  <c:v>4.3982297150257184</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.5530000000000017</c:v>
+                  <c:v>4.5238934211693103</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.679000000000002</c:v>
+                  <c:v>4.6495571273129022</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.8050000000000024</c:v>
+                  <c:v>4.7752208334564941</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9310000000000027</c:v>
+                  <c:v>4.900884539600086</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.057000000000003</c:v>
+                  <c:v>5.0265482457436779</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.1830000000000034</c:v>
+                  <c:v>5.1522119518872698</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.3090000000000037</c:v>
+                  <c:v>5.2778756580308617</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.4350000000000041</c:v>
+                  <c:v>5.4035393641744536</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.5610000000000044</c:v>
+                  <c:v>5.5292030703180455</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.6870000000000047</c:v>
+                  <c:v>5.6548667764616374</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.8130000000000051</c:v>
+                  <c:v>5.7805304826052293</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.9390000000000054</c:v>
+                  <c:v>5.9061941887488212</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0650000000000057</c:v>
+                  <c:v>6.0318578948924131</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.1910000000000061</c:v>
+                  <c:v>6.157521601036005</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.3170000000000064</c:v>
+                  <c:v>6.2831853071795969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15373,307 +15373,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.9999998626449984</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9366464006597808</c:v>
+                  <c:v>1.9371663222572619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7509576050443236</c:v>
+                  <c:v>1.7526133600877261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4546631858558041</c:v>
+                  <c:v>1.4579372548428209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0664796607878269</c:v>
+                  <c:v>1.07165358995799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61092805806360073</c:v>
+                  <c:v>0.61803398874989068</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11678495625011225</c:v>
+                  <c:v>0.12558103905862164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.3847352932868755</c:v>
+                  <c:v>-0.37476262917145498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.86195233473820387</c:v>
+                  <c:v>-0.8515585831301512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2847210130770723</c:v>
+                  <c:v>-1.274847979497385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.6263356027278775</c:v>
+                  <c:v>-1.6180339887498996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8652167721287753</c:v>
+                  <c:v>-1.859552971776506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.9862747209183347</c:v>
+                  <c:v>-1.9842294026289569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.9818623822139703</c:v>
+                  <c:v>-1.9842294026289544</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.8522584774835269</c:v>
+                  <c:v>-1.8595529717764989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.6056499100871529</c:v>
+                  <c:v>-1.6180339887498882</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.2576146096656089</c:v>
+                  <c:v>-1.2748479794973702</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.83013749539550097</c:v>
+                  <c:v>-0.85155858313013377</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.35022171838159949</c:v>
+                  <c:v>-0.3747626291714361</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15181709087410353</c:v>
+                  <c:v>0.12558103905864082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64426581984642162</c:v>
+                  <c:v>0.61803398874990889</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0960171484101677</c:v>
+                  <c:v>1.0716535899580064</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4785345561768382</c:v>
+                  <c:v>1.4579372548428342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7676549358891831</c:v>
+                  <c:v>1.7526133600877354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9451149442237328</c:v>
+                  <c:v>1.9371663222572666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9997046724856242</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9279757613783808</c:v>
+                  <c:v>1.9371663222572575</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.734459229196436</c:v>
+                  <c:v>1.7526133600877176</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4313792535281096</c:v>
+                  <c:v>1.4579372548428091</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0378809864917218</c:v>
+                  <c:v>1.0716535899579755</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57882118137192895</c:v>
+                  <c:v>0.61803398874987425</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.3198025135866147E-2</c:v>
+                  <c:v>0.1255810390586044</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.4176806378147449</c:v>
+                  <c:v>-0.37476262917147196</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.89217497982759986</c:v>
+                  <c:v>-0.85155858313016686</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.3103118351167158</c:v>
+                  <c:v>-1.2748479794973984</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.6456780641035582</c:v>
+                  <c:v>-1.6180339887499091</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.8770890357179211</c:v>
+                  <c:v>-1.8595529717765116</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.9899268318883914</c:v>
+                  <c:v>-1.9842294026289586</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.97706364165479</c:v>
+                  <c:v>-1.9842294026289526</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.8393120153454783</c:v>
+                  <c:v>-1.8595529717764943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.5853735368721693</c:v>
+                  <c:v>-1.6180339887498811</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.2312891564439479</c:v>
+                  <c:v>-1.2748479794973617</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.79942590543948244</c:v>
+                  <c:v>-0.85155858313012456</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.31706400128838325</c:v>
+                  <c:v>-0.37476262917142694</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.18532640696472361</c:v>
+                  <c:v>0.1255810390586492</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.67600999676155527</c:v>
+                  <c:v>0.61803398874991611</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1239909494311202</c:v>
+                  <c:v>1.071653589958012</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.5009709141303569</c:v>
+                  <c:v>1.4579372548428382</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7831365763906635</c:v>
+                  <c:v>1.7526133600877378</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9526639129830954</c:v>
+                  <c:v>1.9371663222572677</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9988441113570419</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9187600308443546</c:v>
+                  <c:v>1.9371663222572566</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7174704744896434</c:v>
+                  <c:v>1.7526133600877165</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4076906313044633</c:v>
+                  <c:v>1.4579372548428078</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0089888749759628</c:v>
+                  <c:v>1.0716535899579744</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.54655065616916398</c:v>
+                  <c:v>0.61803398874987381</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9587571674182825E-2</c:v>
+                  <c:v>0.12558103905860488</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.45050789265152419</c:v>
+                  <c:v>-0.37476262917147057</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.92214538275343649</c:v>
+                  <c:v>-0.85155858313016475</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.3355321963166202</c:v>
+                  <c:v>-1.2748479794973959</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.6645552474734828</c:v>
+                  <c:v>-1.6180339887499073</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.888430595117583</c:v>
+                  <c:v>-1.8595529717765105</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.993016336351058</c:v>
+                  <c:v>-1.9842294026289582</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.9717059313624044</c:v>
+                  <c:v>-1.9842294026289531</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.8258455296103953</c:v>
+                  <c:v>-1.8595529717764954</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.5646489353835642</c:v>
+                  <c:v>-1.6180339887498829</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.204615584245851</c:v>
+                  <c:v>-1.2748479794973639</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.76848829600909074</c:v>
+                  <c:v>-0.85155858313012667</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.28381664156733977</c:v>
+                  <c:v>-0.37476262917142833</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.2187833262330737</c:v>
+                  <c:v>0.12558103905864873</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.70756304724071273</c:v>
+                  <c:v>0.61803398874991644</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.151646967600835</c:v>
+                  <c:v>1.0716535899580131</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.5229829067302567</c:v>
+                  <c:v>1.4579372548428395</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7981140756215379</c:v>
+                  <c:v>1.7526133600877392</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9596608104770303</c:v>
+                  <c:v>1.9371663222572686</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9974184225633183</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.909001814595692</c:v>
+                  <c:v>1.9371663222572555</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.6999961441075493</c:v>
+                  <c:v>1.7526133600877138</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3836040166034722</c:v>
+                  <c:v>1.4579372548428038</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9798114948272868</c:v>
+                  <c:v>1.0716535899579689</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.51412560621159842</c:v>
+                  <c:v>0.6180339887498667</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5963098455566684E-2</c:v>
+                  <c:v>0.12558103905859652</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.48320777663828612</c:v>
+                  <c:v>-0.37476262917147796</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.9518550700666224</c:v>
+                  <c:v>-0.85155858313017241</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.3603749661938487</c:v>
+                  <c:v>-1.274847979497403</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.6829618157438304</c:v>
+                  <c:v>-1.6180339887499133</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.8992382437600548</c:v>
+                  <c:v>-1.8595529717765147</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.9955423608192862</c:v>
+                  <c:v>-1.9842294026289597</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.9657907661074201</c:v>
+                  <c:v>-1.9842294026289515</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.8118628276205282</c:v>
+                  <c:v>-1.8595529717764903</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.543481965030572</c:v>
+                  <c:v>-1.6180339887498745</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.1776014344165799</c:v>
+                  <c:v>-1.2748479794973522</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.73733341400903485</c:v>
+                  <c:v>-0.85155858313011257</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.25048903915248522</c:v>
+                  <c:v>-0.37476262917141312</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.25217838949694971</c:v>
+                  <c:v>0.12558103905866419</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.73891605037724739</c:v>
+                  <c:v>0.61803398874993121</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.1789773838098276</c:v>
+                  <c:v>1.0716535899580262</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.5445643105867863</c:v>
+                  <c:v>1.4579372548428502</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8125831990348991</c:v>
+                  <c:v>1.7526133600877465</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.966103658492073</c:v>
+                  <c:v>1.9371663222572724</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9954280091854995</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15718,307 +15718,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>-6.2830000000000004</c:v>
+                  <c:v>-6.2831853071795862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.157</c:v>
+                  <c:v>-6.1575216010359943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0309999999999997</c:v>
+                  <c:v>-6.0318578948924024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.9049999999999994</c:v>
+                  <c:v>-5.9061941887488105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.778999999999999</c:v>
+                  <c:v>-5.7805304826052186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.6529999999999987</c:v>
+                  <c:v>-5.6548667764616267</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.5269999999999984</c:v>
+                  <c:v>-5.5292030703180348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.400999999999998</c:v>
+                  <c:v>-5.4035393641744429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.2749999999999977</c:v>
+                  <c:v>-5.277875658030851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.1489999999999974</c:v>
+                  <c:v>-5.1522119518872591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.022999999999997</c:v>
+                  <c:v>-5.0265482457436672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.8969999999999967</c:v>
+                  <c:v>-4.9008845396000753</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.7709999999999964</c:v>
+                  <c:v>-4.7752208334564834</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.644999999999996</c:v>
+                  <c:v>-4.6495571273128915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.5189999999999957</c:v>
+                  <c:v>-4.5238934211692996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.3929999999999954</c:v>
+                  <c:v>-4.3982297150257077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.266999999999995</c:v>
+                  <c:v>-4.2725660088821158</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.1409999999999947</c:v>
+                  <c:v>-4.1469023027385239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.0149999999999944</c:v>
+                  <c:v>-4.021238596594932</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.8889999999999945</c:v>
+                  <c:v>-3.8955748904513401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.7629999999999946</c:v>
+                  <c:v>-3.7699111843077482</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.6369999999999947</c:v>
+                  <c:v>-3.6442474781641563</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.5109999999999948</c:v>
+                  <c:v>-3.5185837720205644</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.3849999999999949</c:v>
+                  <c:v>-3.3929200658769725</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.258999999999995</c:v>
+                  <c:v>-3.2672563597333806</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.1329999999999951</c:v>
+                  <c:v>-3.1415926535897887</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.0069999999999952</c:v>
+                  <c:v>-3.0159289474461968</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.8809999999999953</c:v>
+                  <c:v>-2.8902652413026049</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.7549999999999955</c:v>
+                  <c:v>-2.764601535159013</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.6289999999999956</c:v>
+                  <c:v>-2.6389378290154211</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.5029999999999957</c:v>
+                  <c:v>-2.5132741228718292</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.3769999999999958</c:v>
+                  <c:v>-2.3876104167282373</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.2509999999999959</c:v>
+                  <c:v>-2.2619467105846454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.124999999999996</c:v>
+                  <c:v>-2.1362830044410535</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.9989999999999961</c:v>
+                  <c:v>-2.0106192982974616</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.8729999999999962</c:v>
+                  <c:v>-1.8849555921538699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7469999999999963</c:v>
+                  <c:v>-1.7592918860102782</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.6209999999999964</c:v>
+                  <c:v>-1.6336281798666865</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.4949999999999966</c:v>
+                  <c:v>-1.5079644737230948</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.3689999999999967</c:v>
+                  <c:v>-1.3823007675795032</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.2429999999999968</c:v>
+                  <c:v>-1.2566370614359115</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.1169999999999969</c:v>
+                  <c:v>-1.1309733552923198</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.99099999999999688</c:v>
+                  <c:v>-1.0053096491487281</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.86499999999999688</c:v>
+                  <c:v>-0.87964594300513643</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.73899999999999688</c:v>
+                  <c:v>-0.75398223686154475</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.61299999999999688</c:v>
+                  <c:v>-0.62831853071795307</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.48699999999999688</c:v>
+                  <c:v>-0.50265482457436139</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.36099999999999688</c:v>
+                  <c:v>-0.37699111843076966</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23499999999999688</c:v>
+                  <c:v>-0.25132741228717792</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10899999999999688</c:v>
+                  <c:v>-0.12566370614358618</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7000000000003124E-2</c:v>
+                  <c:v>5.5511151231257827E-15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.14300000000000312</c:v>
+                  <c:v>0.12566370614359729</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.26900000000000313</c:v>
+                  <c:v>0.25132741228718902</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.39500000000000313</c:v>
+                  <c:v>0.37699111843078076</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.52100000000000313</c:v>
+                  <c:v>0.50265482457437249</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.64700000000000313</c:v>
+                  <c:v>0.62831853071796417</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.77300000000000313</c:v>
+                  <c:v>0.75398223686155585</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.89900000000000313</c:v>
+                  <c:v>0.87964594300514753</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.025000000000003</c:v>
+                  <c:v>1.0053096491487392</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1510000000000029</c:v>
+                  <c:v>1.1309733552923309</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2770000000000028</c:v>
+                  <c:v>1.2566370614359226</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.4030000000000027</c:v>
+                  <c:v>1.3823007675795143</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5290000000000026</c:v>
+                  <c:v>1.5079644737231059</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6550000000000025</c:v>
+                  <c:v>1.6336281798666976</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.7810000000000024</c:v>
+                  <c:v>1.7592918860102893</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9070000000000022</c:v>
+                  <c:v>1.884955592153881</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0330000000000021</c:v>
+                  <c:v>2.0106192982974727</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.159000000000002</c:v>
+                  <c:v>2.1362830044410646</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.2850000000000019</c:v>
+                  <c:v>2.2619467105846565</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4110000000000018</c:v>
+                  <c:v>2.3876104167282484</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.5370000000000017</c:v>
+                  <c:v>2.5132741228718403</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.6630000000000016</c:v>
+                  <c:v>2.6389378290154322</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7890000000000015</c:v>
+                  <c:v>2.7646015351590241</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9150000000000014</c:v>
+                  <c:v>2.890265241302616</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0410000000000013</c:v>
+                  <c:v>3.0159289474462079</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.1670000000000011</c:v>
+                  <c:v>3.1415926535897998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.293000000000001</c:v>
+                  <c:v>3.2672563597333917</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.4190000000000009</c:v>
+                  <c:v>3.3929200658769836</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.5450000000000008</c:v>
+                  <c:v>3.5185837720205755</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.6710000000000007</c:v>
+                  <c:v>3.6442474781641674</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.7970000000000006</c:v>
+                  <c:v>3.7699111843077593</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.9230000000000005</c:v>
+                  <c:v>3.8955748904513512</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.0490000000000004</c:v>
+                  <c:v>4.0212385965949426</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.1750000000000007</c:v>
+                  <c:v>4.1469023027385346</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.301000000000001</c:v>
+                  <c:v>4.2725660088821265</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4270000000000014</c:v>
+                  <c:v>4.3982297150257184</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.5530000000000017</c:v>
+                  <c:v>4.5238934211693103</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.679000000000002</c:v>
+                  <c:v>4.6495571273129022</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.8050000000000024</c:v>
+                  <c:v>4.7752208334564941</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9310000000000027</c:v>
+                  <c:v>4.900884539600086</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.057000000000003</c:v>
+                  <c:v>5.0265482457436779</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.1830000000000034</c:v>
+                  <c:v>5.1522119518872698</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.3090000000000037</c:v>
+                  <c:v>5.2778756580308617</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.4350000000000041</c:v>
+                  <c:v>5.4035393641744536</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.5610000000000044</c:v>
+                  <c:v>5.5292030703180455</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.6870000000000047</c:v>
+                  <c:v>5.6548667764616374</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.8130000000000051</c:v>
+                  <c:v>5.7805304826052293</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.9390000000000054</c:v>
+                  <c:v>5.9061941887488212</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0650000000000057</c:v>
+                  <c:v>6.0318578948924131</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.1910000000000061</c:v>
+                  <c:v>6.157521601036005</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.3170000000000064</c:v>
+                  <c:v>6.2831853071795969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16030,307 +16030,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3.7061435705115694E-4</c:v>
+                  <c:v>4.90059381963448E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25170140909462396</c:v>
+                  <c:v>0.25066646712860929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49904147618777767</c:v>
+                  <c:v>0.4973797743297107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73846923710077184</c:v>
+                  <c:v>0.73624910536935739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96618856296903721</c:v>
+                  <c:v>0.9635073482034322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1785889622495196</c:v>
+                  <c:v>1.1755705045849481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3723028250899609</c:v>
+                  <c:v>1.3690942118573792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5442588168072331</c:v>
+                  <c:v>1.5410264855515803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6917305739207422</c:v>
+                  <c:v>1.6886558510040319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8123799306649455</c:v>
+                  <c:v>1.8096541049320405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9042939906243146</c:v>
+                  <c:v>1.9021130325903084</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9660154557197091</c:v>
+                  <c:v>1.9645745014573781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.99656573167986</c:v>
+                  <c:v>1.9960534568565433</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9954604436605528</c:v>
+                  <c:v>1.9960534568565429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9627171160112522</c:v>
+                  <c:v>1.9645745014573763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8988548944264154</c:v>
+                  <c:v>1.9021130325903053</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8048863148867877</c:v>
+                  <c:v>1.8096541049320365</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6823012498941743</c:v>
+                  <c:v>1.6886558510040268</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.533043286532249</c:v>
+                  <c:v>1.5410264855515743</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.359478910879421</c:v>
+                  <c:v>1.3690942118573721</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1643599873551043</c:v>
+                  <c:v>1.1755705045849403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95078012788963584</c:v>
+                  <c:v>0.96350734820342376</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72212564268495683</c:v>
+                  <c:v>0.7362491053693484</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.48202185024209948</c:v>
+                  <c:v>0.49737977432970143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23427559791038235</c:v>
+                  <c:v>0.2506664671285998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.7185095704586758E-2</c:v>
+                  <c:v>-9.1268138879829763E-15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.26837331950404325</c:v>
+                  <c:v>-0.2506664671286179</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.51530648240009946</c:v>
+                  <c:v>-0.49737977432971908</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.75406945732597497</c:v>
+                  <c:v>-0.73624910536936539</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.98087665560368908</c:v>
+                  <c:v>-0.96350734820343975</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.1921320474796704</c:v>
+                  <c:v>-1.1755705045849549</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.3844861772022623</c:v>
+                  <c:v>-1.3690942118573854</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.5548892686666613</c:v>
+                  <c:v>-1.5410264855515858</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.7006395796369083</c:v>
+                  <c:v>-1.6886558510040366</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.8194262378883943</c:v>
+                  <c:v>-1.8096541049320443</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.909365880103538</c:v>
+                  <c:v>-1.9021130325903108</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.9690325126106782</c:v>
+                  <c:v>-1.9645745014573797</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.9974801205239545</c:v>
+                  <c:v>-1.9960534568565438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.9942576668160987</c:v>
+                  <c:v>-1.9960534568565425</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.9594162435137354</c:v>
+                  <c:v>-1.9645745014573752</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.8935082616329324</c:v>
+                  <c:v>-1.9021130325903035</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.7975786926985833</c:v>
+                  <c:v>-1.809654104932034</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.6731485007133953</c:v>
+                  <c:v>-1.6886558510040239</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.5221905272627285</c:v>
+                  <c:v>-1.5410264855515712</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.3470982120971271</c:v>
+                  <c:v>-1.3690942118573692</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.1506476451279275</c:v>
+                  <c:v>-1.1755705045849372</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.93595355150182513</c:v>
+                  <c:v>-0.96350734820342088</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.70641990761136042</c:v>
+                  <c:v>-0.73624910536934562</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.46568597102482751</c:v>
+                  <c:v>-0.49737977432969882</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.21756858003145702</c:v>
+                  <c:v>-0.25066646712859747</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3998362357003702E-2</c:v>
+                  <c:v>1.1102230246251565E-14</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.28502626046672513</c:v>
+                  <c:v>0.25066646712861951</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.531535065174779</c:v>
+                  <c:v>0.49737977432972036</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.76961637761649582</c:v>
+                  <c:v>0.73624910536936627</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99549541687746468</c:v>
+                  <c:v>0.96350734820344031</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2055908691719741</c:v>
+                  <c:v>1.1755705045849552</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3965716695987418</c:v>
+                  <c:v>1.3690942118573852</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5654098161987884</c:v>
+                  <c:v>1.5410264855515854</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7094283789481899</c:v>
+                  <c:v>1.6886558510040359</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8263439425027861</c:v>
+                  <c:v>1.8096541049320436</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9143028097648196</c:v>
+                  <c:v>1.9021130325903104</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.9719103922637009</c:v>
+                  <c:v>1.9645745014573792</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.9982533213662022</c:v>
+                  <c:v>1.9960534568565438</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.9929139297426781</c:v>
+                  <c:v>1.9960534568565425</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.9559768734855725</c:v>
+                  <c:v>1.9645745014573754</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.8880277898864637</c:v>
+                  <c:v>1.902113032590304</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.790144012152612</c:v>
+                  <c:v>1.8096541049320347</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6638774882812408</c:v>
+                  <c:v>1.6886558510040246</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5112301749129216</c:v>
+                  <c:v>1.5410264855515716</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.3346222962946956</c:v>
+                  <c:v>1.3690942118573692</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1368539716072981</c:v>
+                  <c:v>1.1755705045849372</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.92106081905548731</c:v>
+                  <c:v>0.96350734820342032</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.69066424061894449</c:v>
+                  <c:v>0.73624910536934474</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.44931717569937385</c:v>
+                  <c:v>0.4973797743296976</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.20084618374011914</c:v>
+                  <c:v>0.25066646712859586</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-5.0809225901225066E-2</c:v>
+                  <c:v>-1.3077646604520154E-14</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.30165905490190098</c:v>
+                  <c:v>-0.25066646712862178</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.54772607742598001</c:v>
+                  <c:v>-0.49737977432972291</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.78510889906848458</c:v>
+                  <c:v>-0.73624910536936905</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.0100438134916292</c:v>
+                  <c:v>-0.96350734820344319</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.2189644760157703</c:v>
+                  <c:v>-1.1755705045849583</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.408558448039851</c:v>
+                  <c:v>-1.3690942118573883</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.5758197157791516</c:v>
+                  <c:v>-1.5410264855515878</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.7180963506353835</c:v>
+                  <c:v>-1.6886558510040381</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.8331325555436107</c:v>
+                  <c:v>-1.8096541049320456</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.919104430650878</c:v>
+                  <c:v>-1.9021130325903119</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.9746488912614453</c:v>
+                  <c:v>-1.9645745014573803</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.9988852795544036</c:v>
+                  <c:v>-1.9960534568565442</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.9914293274197354</c:v>
+                  <c:v>-1.996053456856542</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.9523992490319515</c:v>
+                  <c:v>-1.9645745014573741</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.8824138665635068</c:v>
+                  <c:v>-1.9021130325903017</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.7825827987548235</c:v>
+                  <c:v>-1.8096541049320316</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.6544888679012122</c:v>
+                  <c:v>-1.6886558510040204</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.5001630041940393</c:v>
+                  <c:v>-1.5410264855515667</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.322052045307994</c:v>
+                  <c:v>-1.3690942118573637</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.1229799417722262</c:v>
+                  <c:v>-1.1755705045849307</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.90610298321447569</c:v>
+                  <c:v>-0.96350734820341355</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.67485975536641218</c:v>
+                  <c:v>-0.73624910536933752</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.43291662126222519</c:v>
+                  <c:v>-0.49737977432969005</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.18410959102645097</c:v>
+                  <c:v>-0.25066646712858814</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.7616498094034305E-2</c:v>
+                  <c:v>2.0826222690839558E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16375,307 +16375,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>-6.2830000000000004</c:v>
+                  <c:v>-6.2831853071795862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.157</c:v>
+                  <c:v>-6.1575216010359943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0309999999999997</c:v>
+                  <c:v>-6.0318578948924024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.9049999999999994</c:v>
+                  <c:v>-5.9061941887488105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.778999999999999</c:v>
+                  <c:v>-5.7805304826052186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.6529999999999987</c:v>
+                  <c:v>-5.6548667764616267</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.5269999999999984</c:v>
+                  <c:v>-5.5292030703180348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.400999999999998</c:v>
+                  <c:v>-5.4035393641744429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.2749999999999977</c:v>
+                  <c:v>-5.277875658030851</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.1489999999999974</c:v>
+                  <c:v>-5.1522119518872591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.022999999999997</c:v>
+                  <c:v>-5.0265482457436672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.8969999999999967</c:v>
+                  <c:v>-4.9008845396000753</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.7709999999999964</c:v>
+                  <c:v>-4.7752208334564834</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.644999999999996</c:v>
+                  <c:v>-4.6495571273128915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.5189999999999957</c:v>
+                  <c:v>-4.5238934211692996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.3929999999999954</c:v>
+                  <c:v>-4.3982297150257077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.266999999999995</c:v>
+                  <c:v>-4.2725660088821158</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.1409999999999947</c:v>
+                  <c:v>-4.1469023027385239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.0149999999999944</c:v>
+                  <c:v>-4.021238596594932</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.8889999999999945</c:v>
+                  <c:v>-3.8955748904513401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.7629999999999946</c:v>
+                  <c:v>-3.7699111843077482</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.6369999999999947</c:v>
+                  <c:v>-3.6442474781641563</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.5109999999999948</c:v>
+                  <c:v>-3.5185837720205644</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.3849999999999949</c:v>
+                  <c:v>-3.3929200658769725</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.258999999999995</c:v>
+                  <c:v>-3.2672563597333806</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.1329999999999951</c:v>
+                  <c:v>-3.1415926535897887</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.0069999999999952</c:v>
+                  <c:v>-3.0159289474461968</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.8809999999999953</c:v>
+                  <c:v>-2.8902652413026049</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.7549999999999955</c:v>
+                  <c:v>-2.764601535159013</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.6289999999999956</c:v>
+                  <c:v>-2.6389378290154211</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.5029999999999957</c:v>
+                  <c:v>-2.5132741228718292</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.3769999999999958</c:v>
+                  <c:v>-2.3876104167282373</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.2509999999999959</c:v>
+                  <c:v>-2.2619467105846454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.124999999999996</c:v>
+                  <c:v>-2.1362830044410535</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.9989999999999961</c:v>
+                  <c:v>-2.0106192982974616</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.8729999999999962</c:v>
+                  <c:v>-1.8849555921538699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7469999999999963</c:v>
+                  <c:v>-1.7592918860102782</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.6209999999999964</c:v>
+                  <c:v>-1.6336281798666865</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.4949999999999966</c:v>
+                  <c:v>-1.5079644737230948</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.3689999999999967</c:v>
+                  <c:v>-1.3823007675795032</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.2429999999999968</c:v>
+                  <c:v>-1.2566370614359115</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.1169999999999969</c:v>
+                  <c:v>-1.1309733552923198</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.99099999999999688</c:v>
+                  <c:v>-1.0053096491487281</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.86499999999999688</c:v>
+                  <c:v>-0.87964594300513643</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.73899999999999688</c:v>
+                  <c:v>-0.75398223686154475</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.61299999999999688</c:v>
+                  <c:v>-0.62831853071795307</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.48699999999999688</c:v>
+                  <c:v>-0.50265482457436139</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.36099999999999688</c:v>
+                  <c:v>-0.37699111843076966</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23499999999999688</c:v>
+                  <c:v>-0.25132741228717792</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10899999999999688</c:v>
+                  <c:v>-0.12566370614358618</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7000000000003124E-2</c:v>
+                  <c:v>5.5511151231257827E-15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.14300000000000312</c:v>
+                  <c:v>0.12566370614359729</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.26900000000000313</c:v>
+                  <c:v>0.25132741228718902</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.39500000000000313</c:v>
+                  <c:v>0.37699111843078076</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.52100000000000313</c:v>
+                  <c:v>0.50265482457437249</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.64700000000000313</c:v>
+                  <c:v>0.62831853071796417</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.77300000000000313</c:v>
+                  <c:v>0.75398223686155585</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.89900000000000313</c:v>
+                  <c:v>0.87964594300514753</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.025000000000003</c:v>
+                  <c:v>1.0053096491487392</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1510000000000029</c:v>
+                  <c:v>1.1309733552923309</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2770000000000028</c:v>
+                  <c:v>1.2566370614359226</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.4030000000000027</c:v>
+                  <c:v>1.3823007675795143</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5290000000000026</c:v>
+                  <c:v>1.5079644737231059</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6550000000000025</c:v>
+                  <c:v>1.6336281798666976</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.7810000000000024</c:v>
+                  <c:v>1.7592918860102893</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9070000000000022</c:v>
+                  <c:v>1.884955592153881</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0330000000000021</c:v>
+                  <c:v>2.0106192982974727</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.159000000000002</c:v>
+                  <c:v>2.1362830044410646</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.2850000000000019</c:v>
+                  <c:v>2.2619467105846565</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4110000000000018</c:v>
+                  <c:v>2.3876104167282484</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.5370000000000017</c:v>
+                  <c:v>2.5132741228718403</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.6630000000000016</c:v>
+                  <c:v>2.6389378290154322</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7890000000000015</c:v>
+                  <c:v>2.7646015351590241</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9150000000000014</c:v>
+                  <c:v>2.890265241302616</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0410000000000013</c:v>
+                  <c:v>3.0159289474462079</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.1670000000000011</c:v>
+                  <c:v>3.1415926535897998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.293000000000001</c:v>
+                  <c:v>3.2672563597333917</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.4190000000000009</c:v>
+                  <c:v>3.3929200658769836</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.5450000000000008</c:v>
+                  <c:v>3.5185837720205755</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.6710000000000007</c:v>
+                  <c:v>3.6442474781641674</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.7970000000000006</c:v>
+                  <c:v>3.7699111843077593</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.9230000000000005</c:v>
+                  <c:v>3.8955748904513512</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.0490000000000004</c:v>
+                  <c:v>4.0212385965949426</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.1750000000000007</c:v>
+                  <c:v>4.1469023027385346</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.301000000000001</c:v>
+                  <c:v>4.2725660088821265</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4270000000000014</c:v>
+                  <c:v>4.3982297150257184</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.5530000000000017</c:v>
+                  <c:v>4.5238934211693103</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.679000000000002</c:v>
+                  <c:v>4.6495571273129022</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.8050000000000024</c:v>
+                  <c:v>4.7752208334564941</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9310000000000027</c:v>
+                  <c:v>4.900884539600086</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.057000000000003</c:v>
+                  <c:v>5.0265482457436779</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.1830000000000034</c:v>
+                  <c:v>5.1522119518872698</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.3090000000000037</c:v>
+                  <c:v>5.2778756580308617</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.4350000000000041</c:v>
+                  <c:v>5.4035393641744536</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.5610000000000044</c:v>
+                  <c:v>5.5292030703180455</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.6870000000000047</c:v>
+                  <c:v>5.6548667764616374</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.8130000000000051</c:v>
+                  <c:v>5.7805304826052293</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.9390000000000054</c:v>
+                  <c:v>5.9061941887488212</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0650000000000057</c:v>
+                  <c:v>6.0318578948924131</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.1910000000000061</c:v>
+                  <c:v>6.157521601036005</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.3170000000000064</c:v>
+                  <c:v>6.2831853071795969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16687,307 +16687,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.8530718170718704E-4</c:v>
+                  <c:v>2.45029690981724E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12685933874040059</c:v>
+                  <c:v>0.12632937844610859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25767101267078973</c:v>
+                  <c:v>0.25675636036772742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39731005147085796</c:v>
+                  <c:v>0.39592800879772216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55174937272282631</c:v>
+                  <c:v>0.54975465219277131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72939858560826298</c:v>
+                  <c:v>0.72654252800536256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94321692959671877</c:v>
+                  <c:v>0.93906250581749473</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2150614368902624</c:v>
+                  <c:v>1.2087923504096127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5858093426187767</c:v>
+                  <c:v>1.5757478599686567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1429473993321628</c:v>
+                  <c:v>2.1251081731572126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1152516648024537</c:v>
+                  <c:v>3.077683537175274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3551174609773442</c:v>
+                  <c:v>5.2421835811132382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.042096526443199</c:v>
+                  <c:v>15.894544843865891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-14.816751605132295</c:v>
+                  <c:v>-15.894544843864672</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.106301155025827</c:v>
+                  <c:v>-5.2421835811131006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0237842894140581</c:v>
+                  <c:v>-3.0776835371752238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.0947642028376494</c:v>
+                  <c:v>-2.1251081731571864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.5553794504950544</c:v>
+                  <c:v>-1.5757478599686401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.193552774307163</c:v>
+                  <c:v>-1.208792350409601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.9267653727245575</c:v>
+                  <c:v>-0.93906250581748574</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.71603576798111146</c:v>
+                  <c:v>-0.72654252800535524</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.54035405793876157</c:v>
+                  <c:v>-0.54975465219276498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.38718150715586014</c:v>
+                  <c:v>-0.39592800879771656</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.24833113019580119</c:v>
+                  <c:v>-0.25675636036772231</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.1179498042086834</c:v>
+                  <c:v>-0.1263293784461037</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.5928650718340941E-3</c:v>
+                  <c:v>4.5634069439914882E-15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13541130963318615</c:v>
+                  <c:v>0.126329378446113</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.26665623604500688</c:v>
+                  <c:v>0.25675636036773203</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.40707739810346705</c:v>
+                  <c:v>0.39592800879772716</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5627675154822025</c:v>
+                  <c:v>0.54975465219277697</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.74235860794953468</c:v>
+                  <c:v>0.72654252800536923</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95923131106856674</c:v>
+                  <c:v>0.93906250581750284</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2360965520547245</c:v>
+                  <c:v>1.2087923504096234</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6157594239734745</c:v>
+                  <c:v>1.5757478599686718</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.1908269093209292</c:v>
+                  <c:v>2.1251081731572365</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.2076733614779225</c:v>
+                  <c:v>3.0776835371753171</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.6163940982019902</c:v>
+                  <c:v>5.2421835811133484</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.902123863539483</c:v>
+                  <c:v>15.894544843866818</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-13.167976346854354</c:v>
+                  <c:v>-15.894544843863802</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-4.8880428238793456</c:v>
+                  <c:v>-5.2421835811130091</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.9406185723143499</c:v>
+                  <c:v>-3.0776835371751923</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.0502480520082926</c:v>
+                  <c:v>-2.1251081731571708</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.5270034016933942</c:v>
+                  <c:v>-1.5757478599686312</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.1733706337693091</c:v>
+                  <c:v>-1.2087923504095952</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.91125747300289139</c:v>
+                  <c:v>-0.93906250581748174</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.70339372111986542</c:v>
+                  <c:v>-0.72654252800535235</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.52954078276503691</c:v>
+                  <c:v>-0.54975465219276287</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.37754496102267854</c:v>
+                  <c:v>-0.39592800879771484</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.23942370370944582</c:v>
+                  <c:v>-0.25675636036772087</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10943373774527267</c:v>
+                  <c:v>-0.12632937844610254</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7001637856006207E-2</c:v>
+                  <c:v>5.5511151231257827E-15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.14398277515784177</c:v>
+                  <c:v>0.12632937844611383</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27568183832459875</c:v>
+                  <c:v>0.25675636036773269</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.41691183224909656</c:v>
+                  <c:v>0.39592800879772772</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.57389041844288291</c:v>
+                  <c:v>0.5497546521927773</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.75548142405864793</c:v>
+                  <c:v>0.72654252800536934</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.97550609757446871</c:v>
+                  <c:v>0.93906250581750261</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2575734751398955</c:v>
+                  <c:v>1.2087923504096225</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.6465344294765589</c:v>
+                  <c:v>1.5757478599686698</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.2405033486537196</c:v>
+                  <c:v>2.1251081731572321</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.3052182004054793</c:v>
+                  <c:v>3.0776835371753086</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.903568646087118</c:v>
+                  <c:v>5.2421835811133253</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>23.911613719025262</c:v>
+                  <c:v>15.894544843866617</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-11.847885307064628</c:v>
+                  <c:v>-15.894544843864002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-4.6870156339738278</c:v>
+                  <c:v>-5.2421835811130322</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-2.8614659143282859</c:v>
+                  <c:v>-3.0776835371752007</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.0072405939160722</c:v>
+                  <c:v>-2.1251081731571753</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.499346720636185</c:v>
+                  <c:v>-1.5757478599686332</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.1535828036201592</c:v>
+                  <c:v>-1.2087923504095961</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.89598539218629791</c:v>
+                  <c:v>-0.93906250581748196</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.69090032061945306</c:v>
+                  <c:v>-0.72654252800535224</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.51882336520009686</c:v>
+                  <c:v>-0.54975465219276243</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.36796939846559823</c:v>
+                  <c:v>-0.39592800879771428</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.2305520658652129</c:v>
+                  <c:v>-0.2567563603677202</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.10093332761480862</c:v>
+                  <c:v>-0.1263293784461017</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5412814917901309E-2</c:v>
+                  <c:v>6.5388233022600772E-15</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.15257501806538845</c:v>
+                  <c:v>0.126329378446115</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.28474937701885827</c:v>
+                  <c:v>0.25675636036773414</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.4268154523167666</c:v>
+                  <c:v>0.39592800879772944</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.58512117803174768</c:v>
+                  <c:v>0.54975465219277952</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.7687720113361487</c:v>
+                  <c:v>0.72654252800537222</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.99205005061325846</c:v>
+                  <c:v>0.93906250581750661</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2795094068958039</c:v>
+                  <c:v>1.2087923504096272</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6781734518083602</c:v>
+                  <c:v>1.5757478599686772</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.2920872422041083</c:v>
+                  <c:v>2.125108173157245</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.4083392987317778</c:v>
+                  <c:v>3.0776835371753353</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.2207395900259765</c:v>
+                  <c:v>5.2421835811134043</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>29.938870635093895</c:v>
+                  <c:v>15.894544843867376</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-10.766963094173494</c:v>
+                  <c:v>-15.894544843863189</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-4.5012312539459511</c:v>
+                  <c:v>-5.2421835811129345</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.7860322782578582</c:v>
+                  <c:v>-3.0776835371751625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.9656606301622808</c:v>
+                  <c:v>-2.1251081731571539</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.4723786298540331</c:v>
+                  <c:v>-1.5757478599686197</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.1341751228437211</c:v>
+                  <c:v>-1.2087923504095865</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.88094168135166395</c:v>
+                  <c:v>-0.93906250581747475</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.67855122459655814</c:v>
+                  <c:v>-0.72654252800534624</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.50819904096448887</c:v>
+                  <c:v>-0.54975465219275743</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.35845290137796304</c:v>
+                  <c:v>-0.39592800879770984</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.22171475463619375</c:v>
+                  <c:v>-0.25675636036771604</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-9.2447332172630389E-2</c:v>
+                  <c:v>-0.12632937844609776</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.3827587001537422E-2</c:v>
+                  <c:v>1.0413111345419779E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17065,7 +17065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1933379487"/>
@@ -17129,7 +17129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1933380735"/>
@@ -17181,7 +17181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17211,7 +17211,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18858,52 +18858,52 @@
   <sheetData>
     <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="333" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-      <c r="R2" s="308"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="308"/>
-      <c r="AA2" s="308"/>
-      <c r="AB2" s="308"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
+      <c r="R2" s="333"/>
+      <c r="S2" s="333"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="333"/>
+      <c r="V2" s="333"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="333"/>
+      <c r="AA2" s="333"/>
+      <c r="AB2" s="333"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="309" t="s">
+      <c r="E4" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="G4" s="311" t="s">
+      <c r="F4" s="334"/>
+      <c r="G4" s="336" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="312"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="312"/>
-      <c r="K4" s="312"/>
-      <c r="L4" s="312"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337"/>
+      <c r="J4" s="337"/>
+      <c r="K4" s="337"/>
+      <c r="L4" s="337"/>
       <c r="M4" s="21"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -18911,8 +18911,8 @@
     <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -18950,10 +18950,10 @@
     </row>
     <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="87"/>
-      <c r="D7" s="320" t="s">
+      <c r="D7" s="345" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="320"/>
+      <c r="E7" s="345"/>
       <c r="F7" s="178" t="s">
         <v>41</v>
       </c>
@@ -18971,10 +18971,10 @@
       </c>
       <c r="K7" s="160"/>
       <c r="L7" s="161"/>
-      <c r="M7" s="318"/>
-      <c r="N7" s="318"/>
-      <c r="O7" s="318"/>
-      <c r="P7" s="318"/>
+      <c r="M7" s="343"/>
+      <c r="N7" s="343"/>
+      <c r="O7" s="343"/>
+      <c r="P7" s="343"/>
       <c r="Q7" s="88"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
@@ -19008,10 +19008,10 @@
     </row>
     <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="98"/>
-      <c r="D9" s="321" t="s">
+      <c r="D9" s="346" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="321"/>
+      <c r="E9" s="346"/>
       <c r="F9" s="180" t="s">
         <v>42</v>
       </c>
@@ -19025,10 +19025,10 @@
       <c r="J9" s="165"/>
       <c r="K9" s="165"/>
       <c r="L9" s="165"/>
-      <c r="M9" s="319"/>
-      <c r="N9" s="319"/>
-      <c r="O9" s="319"/>
-      <c r="P9" s="319"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="344"/>
       <c r="Q9" s="99"/>
       <c r="R9" s="90"/>
       <c r="S9" s="100"/>
@@ -19074,10 +19074,10 @@
     </row>
     <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="110"/>
-      <c r="D11" s="322" t="s">
+      <c r="D11" s="347" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="322"/>
+      <c r="E11" s="347"/>
       <c r="F11" s="181" t="s">
         <v>43</v>
       </c>
@@ -19142,10 +19142,10 @@
     </row>
     <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="122"/>
-      <c r="D13" s="323" t="s">
+      <c r="D13" s="348" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="323"/>
+      <c r="E13" s="348"/>
       <c r="F13" s="182" t="s">
         <v>44</v>
       </c>
@@ -19347,22 +19347,22 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="309" t="s">
+      <c r="E20" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="313"/>
-      <c r="G20" s="316" t="s">
+      <c r="F20" s="338"/>
+      <c r="G20" s="341" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="305"/>
-      <c r="I20" s="305" t="s">
+      <c r="H20" s="330"/>
+      <c r="I20" s="330" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="305"/>
-      <c r="K20" s="305" t="s">
+      <c r="J20" s="330"/>
+      <c r="K20" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="306"/>
+      <c r="L20" s="331"/>
       <c r="M20" s="44"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -19379,21 +19379,21 @@
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="314"/>
-      <c r="F21" s="315"/>
-      <c r="G21" s="317">
+      <c r="E21" s="339"/>
+      <c r="F21" s="340"/>
+      <c r="G21" s="342">
         <v>-10</v>
       </c>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317">
+      <c r="H21" s="342"/>
+      <c r="I21" s="342">
         <v>0.2</v>
       </c>
-      <c r="J21" s="317"/>
-      <c r="K21" s="307">
+      <c r="J21" s="342"/>
+      <c r="K21" s="332">
         <f>G21+100*I21</f>
         <v>10</v>
       </c>
-      <c r="L21" s="307"/>
+      <c r="L21" s="332"/>
       <c r="M21" s="47"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -23764,12 +23764,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9NOS8jY5Ug7YrOY49rx7A6/cXCpIjF5Enxg4kw2PLmKKvG06duBf92zLgkT/MBeWCI1tXrFRs+R4hrI9dhXplw==" saltValue="nRjJWJch2cTa6A5Bi+wDuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="22">
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="B2:AB2"/>
@@ -23786,6 +23780,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23797,7 +23797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBEB06B-B065-43FD-A0F9-0716BE283344}">
   <dimension ref="B2:AB124"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
@@ -23828,35 +23828,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="331"/>
-      <c r="H2" s="331"/>
-      <c r="I2" s="331"/>
-      <c r="J2" s="331"/>
-      <c r="K2" s="331"/>
-      <c r="L2" s="331"/>
-      <c r="M2" s="331"/>
-      <c r="N2" s="331"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="331"/>
-      <c r="Q2" s="331"/>
-      <c r="R2" s="331"/>
-      <c r="S2" s="331"/>
-      <c r="T2" s="331"/>
-      <c r="U2" s="331"/>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="331"/>
-      <c r="AA2" s="331"/>
-      <c r="AB2" s="331"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="350"/>
+      <c r="K2" s="350"/>
+      <c r="L2" s="350"/>
+      <c r="M2" s="350"/>
+      <c r="N2" s="350"/>
+      <c r="O2" s="350"/>
+      <c r="P2" s="350"/>
+      <c r="Q2" s="350"/>
+      <c r="R2" s="350"/>
+      <c r="S2" s="350"/>
+      <c r="T2" s="350"/>
+      <c r="U2" s="350"/>
+      <c r="V2" s="350"/>
+      <c r="W2" s="350"/>
+      <c r="X2" s="350"/>
+      <c r="Y2" s="350"/>
+      <c r="Z2" s="350"/>
+      <c r="AA2" s="350"/>
+      <c r="AB2" s="350"/>
     </row>
     <row r="5" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="208"/>
@@ -24218,22 +24218,22 @@
     <row r="20" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="199"/>
       <c r="C20" s="199"/>
-      <c r="D20" s="330" t="s">
+      <c r="D20" s="349" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="330"/>
-      <c r="F20" s="332" t="s">
+      <c r="E20" s="349"/>
+      <c r="F20" s="351" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="332"/>
-      <c r="H20" s="332" t="s">
+      <c r="G20" s="351"/>
+      <c r="H20" s="351" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="332"/>
-      <c r="J20" s="332" t="s">
+      <c r="I20" s="351"/>
+      <c r="J20" s="351" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="332"/>
+      <c r="K20" s="351"/>
       <c r="R20" s="233"/>
       <c r="T20" s="275"/>
       <c r="V20" s="281"/>
@@ -24244,20 +24244,20 @@
     <row r="21" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="199"/>
       <c r="C21" s="199"/>
-      <c r="D21" s="330"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="333">
+      <c r="D21" s="349"/>
+      <c r="E21" s="349"/>
+      <c r="F21" s="352">
         <v>-10</v>
       </c>
-      <c r="G21" s="334"/>
-      <c r="H21" s="334">
+      <c r="G21" s="353"/>
+      <c r="H21" s="353">
         <v>0.2</v>
       </c>
-      <c r="I21" s="334"/>
-      <c r="J21" s="334">
+      <c r="I21" s="353"/>
+      <c r="J21" s="353">
         <v>10</v>
       </c>
-      <c r="K21" s="334"/>
+      <c r="K21" s="353"/>
       <c r="L21" s="222"/>
       <c r="M21" s="222"/>
       <c r="N21" s="222"/>
@@ -28072,7 +28072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U119"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28098,17 +28100,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="333" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
       <c r="K2" s="70"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
@@ -28124,16 +28126,16 @@
     <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="309" t="s">
+      <c r="E4" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="G4" s="311" t="s">
+      <c r="F4" s="334"/>
+      <c r="G4" s="336" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="312"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="312"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337"/>
+      <c r="J4" s="337"/>
       <c r="K4" s="56"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -28148,8 +28150,8 @@
     <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -28193,10 +28195,10 @@
     </row>
     <row r="7" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="24"/>
-      <c r="D7" s="335" t="s">
+      <c r="D7" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="335"/>
+      <c r="E7" s="354"/>
       <c r="F7" s="193" t="s">
         <v>52</v>
       </c>
@@ -28245,10 +28247,10 @@
     </row>
     <row r="9" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="25"/>
-      <c r="D9" s="336" t="s">
+      <c r="D9" s="355" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="336"/>
+      <c r="E9" s="355"/>
       <c r="F9" s="195" t="s">
         <v>52</v>
       </c>
@@ -28299,10 +28301,10 @@
     </row>
     <row r="11" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="26"/>
-      <c r="D11" s="337" t="s">
+      <c r="D11" s="356" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="337"/>
+      <c r="E11" s="356"/>
       <c r="F11" s="196" t="s">
         <v>53</v>
       </c>
@@ -28367,10 +28369,10 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="309" t="s">
+      <c r="E14" s="334" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="313"/>
+      <c r="F14" s="338"/>
       <c r="G14" s="71" t="s">
         <v>24</v>
       </c>
@@ -28396,8 +28398,8 @@
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="314"/>
-      <c r="F15" s="315"/>
+      <c r="E15" s="339"/>
+      <c r="F15" s="340"/>
       <c r="G15" s="191">
         <f>-2*PI()</f>
         <v>-6.2831853071795862</v>
@@ -31187,50 +31189,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEE31D0-C35B-43BD-8C5C-D97C54BC7397}">
   <dimension ref="B2:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="0.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="14" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="338" t="s">
+      <c r="B2" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="338"/>
-      <c r="D2" s="338"/>
-      <c r="E2" s="338"/>
-      <c r="F2" s="338"/>
-      <c r="G2" s="338"/>
-      <c r="H2" s="338"/>
-      <c r="I2" s="338"/>
-      <c r="J2" s="338"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="357"/>
+      <c r="I2" s="357"/>
+      <c r="J2" s="357"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="359" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="G4" s="341" t="s">
+      <c r="F4" s="359"/>
+      <c r="G4" s="360" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
+      <c r="H4" s="360"/>
+      <c r="I4" s="360"/>
+      <c r="J4" s="360"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
       <c r="G5" s="304" t="s">
         <v>16</v>
       </c>
@@ -31245,22 +31246,22 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="344" t="s">
+      <c r="E7" s="305" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="344" t="s">
+      <c r="F7" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="360">
+      <c r="G7" s="321">
         <v>2</v>
       </c>
-      <c r="H7" s="360">
+      <c r="H7" s="321">
         <v>2</v>
       </c>
-      <c r="I7" s="360">
+      <c r="I7" s="321">
         <v>0</v>
       </c>
-      <c r="J7" s="360">
+      <c r="J7" s="321">
         <v>0</v>
       </c>
     </row>
@@ -31271,22 +31272,22 @@
       <c r="J8" s="198"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="345" t="s">
+      <c r="E9" s="306" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="345" t="s">
+      <c r="F9" s="306" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="361">
+      <c r="G9" s="322">
         <v>2</v>
       </c>
-      <c r="H9" s="361">
+      <c r="H9" s="322">
         <v>1</v>
       </c>
-      <c r="I9" s="361">
+      <c r="I9" s="322">
         <v>0</v>
       </c>
-      <c r="J9" s="361">
+      <c r="J9" s="322">
         <v>0</v>
       </c>
     </row>
@@ -31297,30 +31298,30 @@
       <c r="J10" s="198"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="346" t="s">
+      <c r="E11" s="307" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="346" t="s">
+      <c r="F11" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="362">
+      <c r="G11" s="323">
         <v>1</v>
       </c>
-      <c r="H11" s="362">
+      <c r="H11" s="323">
         <v>1</v>
       </c>
-      <c r="I11" s="362">
+      <c r="I11" s="323">
         <v>0</v>
       </c>
-      <c r="J11" s="362">
+      <c r="J11" s="323">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="339" t="s">
+      <c r="E14" s="358" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="339"/>
+      <c r="F14" s="358"/>
       <c r="G14" s="303" t="s">
         <v>64</v>
       </c>
@@ -31332,29 +31333,32 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="339"/>
-      <c r="F15" s="339"/>
-      <c r="G15">
-        <v>-6.2830000000000004</v>
-      </c>
-      <c r="H15">
-        <v>0.126</v>
-      </c>
-      <c r="I15">
-        <v>6.2830000000000004</v>
+      <c r="E15" s="358"/>
+      <c r="F15" s="358"/>
+      <c r="G15" s="198">
+        <f>-2*PI()</f>
+        <v>-6.2831853071795862</v>
+      </c>
+      <c r="H15" s="198">
+        <f>(I15-G15)/100</f>
+        <v>0.12566370614359174</v>
+      </c>
+      <c r="I15" s="198">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
       </c>
     </row>
     <row r="17" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="P17" s="347" t="s">
+      <c r="P17" s="308" t="s">
         <v>66</v>
       </c>
-      <c r="Q17" s="349" t="s">
+      <c r="Q17" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="357" t="s">
+      <c r="R17" s="318" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="354" t="s">
+      <c r="S17" s="315" t="s">
         <v>29</v>
       </c>
     </row>
@@ -31364,19 +31368,19 @@
       </c>
       <c r="P18">
         <f>$G$15</f>
-        <v>-6.2830000000000004</v>
-      </c>
-      <c r="Q18" s="350">
+        <v>-6.2831853071795862</v>
+      </c>
+      <c r="Q18" s="311">
         <f>$G$7*COS($H$7*P18+I7)+J7</f>
-        <v>1.9999998626449984</v>
-      </c>
-      <c r="R18" s="358">
+        <v>2</v>
+      </c>
+      <c r="R18" s="319">
         <f>$G$9*SIN($H$9*P18+$I$9)+$J$9</f>
-        <v>3.7061435705115694E-4</v>
-      </c>
-      <c r="S18" s="355">
+        <v>4.90059381963448E-16</v>
+      </c>
+      <c r="S18" s="316">
         <f>$G$11*TAN($H$11*P18+$I$11)+$J$11</f>
-        <v>1.8530718170718704E-4</v>
+        <v>2.45029690981724E-16</v>
       </c>
     </row>
     <row r="19" spans="15:19" x14ac:dyDescent="0.25">
@@ -31385,19 +31389,19 @@
       </c>
       <c r="P19">
         <f>P18+$H$15</f>
-        <v>-6.157</v>
-      </c>
-      <c r="Q19" s="351">
+        <v>-6.1575216010359943</v>
+      </c>
+      <c r="Q19" s="312">
         <f>$G$7*COS($H$7*P19+$I$8)+$J$8</f>
-        <v>1.9366464006597808</v>
-      </c>
-      <c r="R19" s="359">
+        <v>1.9371663222572619</v>
+      </c>
+      <c r="R19" s="320">
         <f t="shared" ref="R19:R82" si="0">$G$9*SIN($H$9*P19+$I$9)+$J$9</f>
-        <v>0.25170140909462396</v>
-      </c>
-      <c r="S19" s="356">
+        <v>0.25066646712860929</v>
+      </c>
+      <c r="S19" s="317">
         <f t="shared" ref="S19:S82" si="1">$G$11*TAN($H$11*P19+$I$11)+$J$11</f>
-        <v>0.12685933874040059</v>
+        <v>0.12632937844610859</v>
       </c>
     </row>
     <row r="20" spans="15:19" x14ac:dyDescent="0.25">
@@ -31406,19 +31410,19 @@
       </c>
       <c r="P20">
         <f t="shared" ref="P20:P83" si="2">P19+$H$15</f>
-        <v>-6.0309999999999997</v>
-      </c>
-      <c r="Q20" s="350">
+        <v>-6.0318578948924024</v>
+      </c>
+      <c r="Q20" s="311">
         <f t="shared" ref="Q20:Q83" si="3">$G$7*COS($H$7*P20+$I$8)+$J$8</f>
-        <v>1.7509576050443236</v>
-      </c>
-      <c r="R20" s="358">
+        <v>1.7526133600877261</v>
+      </c>
+      <c r="R20" s="319">
         <f t="shared" si="0"/>
-        <v>0.49904147618777767</v>
-      </c>
-      <c r="S20" s="355">
+        <v>0.4973797743297107</v>
+      </c>
+      <c r="S20" s="316">
         <f t="shared" si="1"/>
-        <v>0.25767101267078973</v>
+        <v>0.25675636036772742</v>
       </c>
     </row>
     <row r="21" spans="15:19" x14ac:dyDescent="0.25">
@@ -31427,19 +31431,19 @@
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>-5.9049999999999994</v>
-      </c>
-      <c r="Q21" s="351">
+        <v>-5.9061941887488105</v>
+      </c>
+      <c r="Q21" s="312">
         <f t="shared" si="3"/>
-        <v>1.4546631858558041</v>
-      </c>
-      <c r="R21" s="359">
+        <v>1.4579372548428209</v>
+      </c>
+      <c r="R21" s="320">
         <f t="shared" si="0"/>
-        <v>0.73846923710077184</v>
-      </c>
-      <c r="S21" s="356">
+        <v>0.73624910536935739</v>
+      </c>
+      <c r="S21" s="317">
         <f t="shared" si="1"/>
-        <v>0.39731005147085796</v>
+        <v>0.39592800879772216</v>
       </c>
     </row>
     <row r="22" spans="15:19" x14ac:dyDescent="0.25">
@@ -31448,19 +31452,19 @@
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>-5.778999999999999</v>
-      </c>
-      <c r="Q22" s="350">
+        <v>-5.7805304826052186</v>
+      </c>
+      <c r="Q22" s="311">
         <f t="shared" si="3"/>
-        <v>1.0664796607878269</v>
-      </c>
-      <c r="R22" s="358">
+        <v>1.07165358995799</v>
+      </c>
+      <c r="R22" s="319">
         <f t="shared" si="0"/>
-        <v>0.96618856296903721</v>
-      </c>
-      <c r="S22" s="355">
+        <v>0.9635073482034322</v>
+      </c>
+      <c r="S22" s="316">
         <f t="shared" si="1"/>
-        <v>0.55174937272282631</v>
+        <v>0.54975465219277131</v>
       </c>
     </row>
     <row r="23" spans="15:19" x14ac:dyDescent="0.25">
@@ -31469,19 +31473,19 @@
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>-5.6529999999999987</v>
-      </c>
-      <c r="Q23" s="351">
+        <v>-5.6548667764616267</v>
+      </c>
+      <c r="Q23" s="312">
         <f t="shared" si="3"/>
-        <v>0.61092805806360073</v>
-      </c>
-      <c r="R23" s="359">
+        <v>0.61803398874989068</v>
+      </c>
+      <c r="R23" s="320">
         <f t="shared" si="0"/>
-        <v>1.1785889622495196</v>
-      </c>
-      <c r="S23" s="356">
+        <v>1.1755705045849481</v>
+      </c>
+      <c r="S23" s="317">
         <f t="shared" si="1"/>
-        <v>0.72939858560826298</v>
+        <v>0.72654252800536256</v>
       </c>
     </row>
     <row r="24" spans="15:19" x14ac:dyDescent="0.25">
@@ -31490,19 +31494,19 @@
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>-5.5269999999999984</v>
-      </c>
-      <c r="Q24" s="350">
+        <v>-5.5292030703180348</v>
+      </c>
+      <c r="Q24" s="311">
         <f t="shared" si="3"/>
-        <v>0.11678495625011225</v>
-      </c>
-      <c r="R24" s="358">
+        <v>0.12558103905862164</v>
+      </c>
+      <c r="R24" s="319">
         <f t="shared" si="0"/>
-        <v>1.3723028250899609</v>
-      </c>
-      <c r="S24" s="355">
+        <v>1.3690942118573792</v>
+      </c>
+      <c r="S24" s="316">
         <f t="shared" si="1"/>
-        <v>0.94321692959671877</v>
+        <v>0.93906250581749473</v>
       </c>
     </row>
     <row r="25" spans="15:19" x14ac:dyDescent="0.25">
@@ -31511,19 +31515,19 @@
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
-        <v>-5.400999999999998</v>
-      </c>
-      <c r="Q25" s="351">
+        <v>-5.4035393641744429</v>
+      </c>
+      <c r="Q25" s="312">
         <f t="shared" si="3"/>
-        <v>-0.3847352932868755</v>
-      </c>
-      <c r="R25" s="359">
+        <v>-0.37476262917145498</v>
+      </c>
+      <c r="R25" s="320">
         <f t="shared" si="0"/>
-        <v>1.5442588168072331</v>
-      </c>
-      <c r="S25" s="356">
+        <v>1.5410264855515803</v>
+      </c>
+      <c r="S25" s="317">
         <f t="shared" si="1"/>
-        <v>1.2150614368902624</v>
+        <v>1.2087923504096127</v>
       </c>
     </row>
     <row r="26" spans="15:19" x14ac:dyDescent="0.25">
@@ -31532,19 +31536,19 @@
       </c>
       <c r="P26">
         <f t="shared" si="2"/>
-        <v>-5.2749999999999977</v>
-      </c>
-      <c r="Q26" s="350">
+        <v>-5.277875658030851</v>
+      </c>
+      <c r="Q26" s="311">
         <f t="shared" si="3"/>
-        <v>-0.86195233473820387</v>
-      </c>
-      <c r="R26" s="358">
+        <v>-0.8515585831301512</v>
+      </c>
+      <c r="R26" s="319">
         <f t="shared" si="0"/>
-        <v>1.6917305739207422</v>
-      </c>
-      <c r="S26" s="355">
+        <v>1.6886558510040319</v>
+      </c>
+      <c r="S26" s="316">
         <f t="shared" si="1"/>
-        <v>1.5858093426187767</v>
+        <v>1.5757478599686567</v>
       </c>
     </row>
     <row r="27" spans="15:19" x14ac:dyDescent="0.25">
@@ -31553,19 +31557,19 @@
       </c>
       <c r="P27">
         <f t="shared" si="2"/>
-        <v>-5.1489999999999974</v>
-      </c>
-      <c r="Q27" s="351">
+        <v>-5.1522119518872591</v>
+      </c>
+      <c r="Q27" s="312">
         <f t="shared" si="3"/>
-        <v>-1.2847210130770723</v>
-      </c>
-      <c r="R27" s="359">
+        <v>-1.274847979497385</v>
+      </c>
+      <c r="R27" s="320">
         <f t="shared" si="0"/>
-        <v>1.8123799306649455</v>
-      </c>
-      <c r="S27" s="356">
+        <v>1.8096541049320405</v>
+      </c>
+      <c r="S27" s="317">
         <f t="shared" si="1"/>
-        <v>2.1429473993321628</v>
+        <v>2.1251081731572126</v>
       </c>
     </row>
     <row r="28" spans="15:19" x14ac:dyDescent="0.25">
@@ -31574,19 +31578,19 @@
       </c>
       <c r="P28">
         <f t="shared" si="2"/>
-        <v>-5.022999999999997</v>
-      </c>
-      <c r="Q28" s="350">
+        <v>-5.0265482457436672</v>
+      </c>
+      <c r="Q28" s="311">
         <f t="shared" si="3"/>
-        <v>-1.6263356027278775</v>
-      </c>
-      <c r="R28" s="358">
+        <v>-1.6180339887498996</v>
+      </c>
+      <c r="R28" s="319">
         <f t="shared" si="0"/>
-        <v>1.9042939906243146</v>
-      </c>
-      <c r="S28" s="355">
+        <v>1.9021130325903084</v>
+      </c>
+      <c r="S28" s="316">
         <f t="shared" si="1"/>
-        <v>3.1152516648024537</v>
+        <v>3.077683537175274</v>
       </c>
     </row>
     <row r="29" spans="15:19" x14ac:dyDescent="0.25">
@@ -31595,19 +31599,19 @@
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
-        <v>-4.8969999999999967</v>
-      </c>
-      <c r="Q29" s="351">
+        <v>-4.9008845396000753</v>
+      </c>
+      <c r="Q29" s="312">
         <f t="shared" si="3"/>
-        <v>-1.8652167721287753</v>
-      </c>
-      <c r="R29" s="359">
+        <v>-1.859552971776506</v>
+      </c>
+      <c r="R29" s="320">
         <f t="shared" si="0"/>
-        <v>1.9660154557197091</v>
-      </c>
-      <c r="S29" s="356">
+        <v>1.9645745014573781</v>
+      </c>
+      <c r="S29" s="317">
         <f t="shared" si="1"/>
-        <v>5.3551174609773442</v>
+        <v>5.2421835811132382</v>
       </c>
     </row>
     <row r="30" spans="15:19" x14ac:dyDescent="0.25">
@@ -31616,19 +31620,19 @@
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>-4.7709999999999964</v>
-      </c>
-      <c r="Q30" s="350">
+        <v>-4.7752208334564834</v>
+      </c>
+      <c r="Q30" s="311">
         <f t="shared" si="3"/>
-        <v>-1.9862747209183347</v>
-      </c>
-      <c r="R30" s="358">
+        <v>-1.9842294026289569</v>
+      </c>
+      <c r="R30" s="319">
         <f t="shared" si="0"/>
-        <v>1.99656573167986</v>
-      </c>
-      <c r="S30" s="355">
+        <v>1.9960534568565433</v>
+      </c>
+      <c r="S30" s="316">
         <f t="shared" si="1"/>
-        <v>17.042096526443199</v>
+        <v>15.894544843865891</v>
       </c>
     </row>
     <row r="31" spans="15:19" x14ac:dyDescent="0.25">
@@ -31637,19 +31641,19 @@
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>-4.644999999999996</v>
-      </c>
-      <c r="Q31" s="351">
+        <v>-4.6495571273128915</v>
+      </c>
+      <c r="Q31" s="312">
         <f t="shared" si="3"/>
-        <v>-1.9818623822139703</v>
-      </c>
-      <c r="R31" s="359">
+        <v>-1.9842294026289544</v>
+      </c>
+      <c r="R31" s="320">
         <f t="shared" si="0"/>
-        <v>1.9954604436605528</v>
-      </c>
-      <c r="S31" s="356">
+        <v>1.9960534568565429</v>
+      </c>
+      <c r="S31" s="317">
         <f t="shared" si="1"/>
-        <v>-14.816751605132295</v>
+        <v>-15.894544843864672</v>
       </c>
     </row>
     <row r="32" spans="15:19" x14ac:dyDescent="0.25">
@@ -31658,19 +31662,19 @@
       </c>
       <c r="P32">
         <f t="shared" si="2"/>
-        <v>-4.5189999999999957</v>
-      </c>
-      <c r="Q32" s="350">
+        <v>-4.5238934211692996</v>
+      </c>
+      <c r="Q32" s="311">
         <f t="shared" si="3"/>
-        <v>-1.8522584774835269</v>
-      </c>
-      <c r="R32" s="358">
+        <v>-1.8595529717764989</v>
+      </c>
+      <c r="R32" s="319">
         <f t="shared" si="0"/>
-        <v>1.9627171160112522</v>
-      </c>
-      <c r="S32" s="355">
+        <v>1.9645745014573763</v>
+      </c>
+      <c r="S32" s="316">
         <f t="shared" si="1"/>
-        <v>-5.106301155025827</v>
+        <v>-5.2421835811131006</v>
       </c>
     </row>
     <row r="33" spans="15:19" x14ac:dyDescent="0.25">
@@ -31679,19 +31683,19 @@
       </c>
       <c r="P33">
         <f t="shared" si="2"/>
-        <v>-4.3929999999999954</v>
-      </c>
-      <c r="Q33" s="351">
+        <v>-4.3982297150257077</v>
+      </c>
+      <c r="Q33" s="312">
         <f t="shared" si="3"/>
-        <v>-1.6056499100871529</v>
-      </c>
-      <c r="R33" s="359">
+        <v>-1.6180339887498882</v>
+      </c>
+      <c r="R33" s="320">
         <f t="shared" si="0"/>
-        <v>1.8988548944264154</v>
-      </c>
-      <c r="S33" s="356">
+        <v>1.9021130325903053</v>
+      </c>
+      <c r="S33" s="317">
         <f t="shared" si="1"/>
-        <v>-3.0237842894140581</v>
+        <v>-3.0776835371752238</v>
       </c>
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.25">
@@ -31700,19 +31704,19 @@
       </c>
       <c r="P34">
         <f t="shared" si="2"/>
-        <v>-4.266999999999995</v>
-      </c>
-      <c r="Q34" s="350">
+        <v>-4.2725660088821158</v>
+      </c>
+      <c r="Q34" s="311">
         <f t="shared" si="3"/>
-        <v>-1.2576146096656089</v>
-      </c>
-      <c r="R34" s="358">
+        <v>-1.2748479794973702</v>
+      </c>
+      <c r="R34" s="319">
         <f t="shared" si="0"/>
-        <v>1.8048863148867877</v>
-      </c>
-      <c r="S34" s="355">
+        <v>1.8096541049320365</v>
+      </c>
+      <c r="S34" s="316">
         <f t="shared" si="1"/>
-        <v>-2.0947642028376494</v>
+        <v>-2.1251081731571864</v>
       </c>
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.25">
@@ -31721,19 +31725,19 @@
       </c>
       <c r="P35">
         <f t="shared" si="2"/>
-        <v>-4.1409999999999947</v>
-      </c>
-      <c r="Q35" s="351">
+        <v>-4.1469023027385239</v>
+      </c>
+      <c r="Q35" s="312">
         <f t="shared" si="3"/>
-        <v>-0.83013749539550097</v>
-      </c>
-      <c r="R35" s="359">
+        <v>-0.85155858313013377</v>
+      </c>
+      <c r="R35" s="320">
         <f t="shared" si="0"/>
-        <v>1.6823012498941743</v>
-      </c>
-      <c r="S35" s="356">
+        <v>1.6886558510040268</v>
+      </c>
+      <c r="S35" s="317">
         <f t="shared" si="1"/>
-        <v>-1.5553794504950544</v>
+        <v>-1.5757478599686401</v>
       </c>
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.25">
@@ -31742,19 +31746,19 @@
       </c>
       <c r="P36">
         <f t="shared" si="2"/>
-        <v>-4.0149999999999944</v>
-      </c>
-      <c r="Q36" s="350">
+        <v>-4.021238596594932</v>
+      </c>
+      <c r="Q36" s="311">
         <f t="shared" si="3"/>
-        <v>-0.35022171838159949</v>
-      </c>
-      <c r="R36" s="358">
+        <v>-0.3747626291714361</v>
+      </c>
+      <c r="R36" s="319">
         <f t="shared" si="0"/>
-        <v>1.533043286532249</v>
-      </c>
-      <c r="S36" s="355">
+        <v>1.5410264855515743</v>
+      </c>
+      <c r="S36" s="316">
         <f t="shared" si="1"/>
-        <v>-1.193552774307163</v>
+        <v>-1.208792350409601</v>
       </c>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.25">
@@ -31763,19 +31767,19 @@
       </c>
       <c r="P37">
         <f t="shared" si="2"/>
-        <v>-3.8889999999999945</v>
-      </c>
-      <c r="Q37" s="351">
+        <v>-3.8955748904513401</v>
+      </c>
+      <c r="Q37" s="312">
         <f t="shared" si="3"/>
-        <v>0.15181709087410353</v>
-      </c>
-      <c r="R37" s="359">
+        <v>0.12558103905864082</v>
+      </c>
+      <c r="R37" s="320">
         <f t="shared" si="0"/>
-        <v>1.359478910879421</v>
-      </c>
-      <c r="S37" s="356">
+        <v>1.3690942118573721</v>
+      </c>
+      <c r="S37" s="317">
         <f t="shared" si="1"/>
-        <v>-0.9267653727245575</v>
+        <v>-0.93906250581748574</v>
       </c>
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.25">
@@ -31784,19 +31788,19 @@
       </c>
       <c r="P38">
         <f t="shared" si="2"/>
-        <v>-3.7629999999999946</v>
-      </c>
-      <c r="Q38" s="350">
+        <v>-3.7699111843077482</v>
+      </c>
+      <c r="Q38" s="311">
         <f t="shared" si="3"/>
-        <v>0.64426581984642162</v>
-      </c>
-      <c r="R38" s="358">
+        <v>0.61803398874990889</v>
+      </c>
+      <c r="R38" s="319">
         <f t="shared" si="0"/>
-        <v>1.1643599873551043</v>
-      </c>
-      <c r="S38" s="355">
+        <v>1.1755705045849403</v>
+      </c>
+      <c r="S38" s="316">
         <f t="shared" si="1"/>
-        <v>-0.71603576798111146</v>
+        <v>-0.72654252800535524</v>
       </c>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.25">
@@ -31805,19 +31809,19 @@
       </c>
       <c r="P39">
         <f t="shared" si="2"/>
-        <v>-3.6369999999999947</v>
-      </c>
-      <c r="Q39" s="351">
+        <v>-3.6442474781641563</v>
+      </c>
+      <c r="Q39" s="312">
         <f t="shared" si="3"/>
-        <v>1.0960171484101677</v>
-      </c>
-      <c r="R39" s="359">
+        <v>1.0716535899580064</v>
+      </c>
+      <c r="R39" s="320">
         <f t="shared" si="0"/>
-        <v>0.95078012788963584</v>
-      </c>
-      <c r="S39" s="356">
+        <v>0.96350734820342376</v>
+      </c>
+      <c r="S39" s="317">
         <f t="shared" si="1"/>
-        <v>-0.54035405793876157</v>
+        <v>-0.54975465219276498</v>
       </c>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.25">
@@ -31826,19 +31830,19 @@
       </c>
       <c r="P40">
         <f t="shared" si="2"/>
-        <v>-3.5109999999999948</v>
-      </c>
-      <c r="Q40" s="350">
+        <v>-3.5185837720205644</v>
+      </c>
+      <c r="Q40" s="311">
         <f t="shared" si="3"/>
-        <v>1.4785345561768382</v>
-      </c>
-      <c r="R40" s="358">
+        <v>1.4579372548428342</v>
+      </c>
+      <c r="R40" s="319">
         <f t="shared" si="0"/>
-        <v>0.72212564268495683</v>
-      </c>
-      <c r="S40" s="355">
+        <v>0.7362491053693484</v>
+      </c>
+      <c r="S40" s="316">
         <f t="shared" si="1"/>
-        <v>-0.38718150715586014</v>
+        <v>-0.39592800879771656</v>
       </c>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.25">
@@ -31847,19 +31851,19 @@
       </c>
       <c r="P41">
         <f t="shared" si="2"/>
-        <v>-3.3849999999999949</v>
-      </c>
-      <c r="Q41" s="351">
+        <v>-3.3929200658769725</v>
+      </c>
+      <c r="Q41" s="312">
         <f t="shared" si="3"/>
-        <v>1.7676549358891831</v>
-      </c>
-      <c r="R41" s="359">
+        <v>1.7526133600877354</v>
+      </c>
+      <c r="R41" s="320">
         <f t="shared" si="0"/>
-        <v>0.48202185024209948</v>
-      </c>
-      <c r="S41" s="356">
+        <v>0.49737977432970143</v>
+      </c>
+      <c r="S41" s="317">
         <f t="shared" si="1"/>
-        <v>-0.24833113019580119</v>
+        <v>-0.25675636036772231</v>
       </c>
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.25">
@@ -31868,19 +31872,19 @@
       </c>
       <c r="P42">
         <f t="shared" si="2"/>
-        <v>-3.258999999999995</v>
-      </c>
-      <c r="Q42" s="350">
+        <v>-3.2672563597333806</v>
+      </c>
+      <c r="Q42" s="311">
         <f t="shared" si="3"/>
-        <v>1.9451149442237328</v>
-      </c>
-      <c r="R42" s="358">
+        <v>1.9371663222572666</v>
+      </c>
+      <c r="R42" s="319">
         <f t="shared" si="0"/>
-        <v>0.23427559791038235</v>
-      </c>
-      <c r="S42" s="355">
+        <v>0.2506664671285998</v>
+      </c>
+      <c r="S42" s="316">
         <f t="shared" si="1"/>
-        <v>-0.1179498042086834</v>
+        <v>-0.1263293784461037</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.25">
@@ -31889,19 +31893,19 @@
       </c>
       <c r="P43">
         <f t="shared" si="2"/>
-        <v>-3.1329999999999951</v>
-      </c>
-      <c r="Q43" s="351">
+        <v>-3.1415926535897887</v>
+      </c>
+      <c r="Q43" s="312">
         <f t="shared" si="3"/>
-        <v>1.9997046724856242</v>
-      </c>
-      <c r="R43" s="359">
+        <v>2</v>
+      </c>
+      <c r="R43" s="320">
         <f t="shared" si="0"/>
-        <v>-1.7185095704586758E-2</v>
-      </c>
-      <c r="S43" s="356">
+        <v>-9.1268138879829763E-15</v>
+      </c>
+      <c r="S43" s="317">
         <f t="shared" si="1"/>
-        <v>8.5928650718340941E-3</v>
+        <v>4.5634069439914882E-15</v>
       </c>
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.25">
@@ -31910,19 +31914,19 @@
       </c>
       <c r="P44">
         <f t="shared" si="2"/>
-        <v>-3.0069999999999952</v>
-      </c>
-      <c r="Q44" s="350">
+        <v>-3.0159289474461968</v>
+      </c>
+      <c r="Q44" s="311">
         <f t="shared" si="3"/>
-        <v>1.9279757613783808</v>
-      </c>
-      <c r="R44" s="358">
+        <v>1.9371663222572575</v>
+      </c>
+      <c r="R44" s="319">
         <f t="shared" si="0"/>
-        <v>-0.26837331950404325</v>
-      </c>
-      <c r="S44" s="355">
+        <v>-0.2506664671286179</v>
+      </c>
+      <c r="S44" s="316">
         <f t="shared" si="1"/>
-        <v>0.13541130963318615</v>
+        <v>0.126329378446113</v>
       </c>
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.25">
@@ -31931,19 +31935,19 @@
       </c>
       <c r="P45">
         <f t="shared" si="2"/>
-        <v>-2.8809999999999953</v>
-      </c>
-      <c r="Q45" s="351">
+        <v>-2.8902652413026049</v>
+      </c>
+      <c r="Q45" s="312">
         <f t="shared" si="3"/>
-        <v>1.734459229196436</v>
-      </c>
-      <c r="R45" s="359">
+        <v>1.7526133600877176</v>
+      </c>
+      <c r="R45" s="320">
         <f t="shared" si="0"/>
-        <v>-0.51530648240009946</v>
-      </c>
-      <c r="S45" s="356">
+        <v>-0.49737977432971908</v>
+      </c>
+      <c r="S45" s="317">
         <f t="shared" si="1"/>
-        <v>0.26665623604500688</v>
+        <v>0.25675636036773203</v>
       </c>
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.25">
@@ -31952,19 +31956,19 @@
       </c>
       <c r="P46">
         <f t="shared" si="2"/>
-        <v>-2.7549999999999955</v>
-      </c>
-      <c r="Q46" s="350">
+        <v>-2.764601535159013</v>
+      </c>
+      <c r="Q46" s="311">
         <f t="shared" si="3"/>
-        <v>1.4313792535281096</v>
-      </c>
-      <c r="R46" s="358">
+        <v>1.4579372548428091</v>
+      </c>
+      <c r="R46" s="319">
         <f t="shared" si="0"/>
-        <v>-0.75406945732597497</v>
-      </c>
-      <c r="S46" s="355">
+        <v>-0.73624910536936539</v>
+      </c>
+      <c r="S46" s="316">
         <f t="shared" si="1"/>
-        <v>0.40707739810346705</v>
+        <v>0.39592800879772716</v>
       </c>
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.25">
@@ -31973,19 +31977,19 @@
       </c>
       <c r="P47">
         <f t="shared" si="2"/>
-        <v>-2.6289999999999956</v>
-      </c>
-      <c r="Q47" s="351">
+        <v>-2.6389378290154211</v>
+      </c>
+      <c r="Q47" s="312">
         <f t="shared" si="3"/>
-        <v>1.0378809864917218</v>
-      </c>
-      <c r="R47" s="359">
+        <v>1.0716535899579755</v>
+      </c>
+      <c r="R47" s="320">
         <f t="shared" si="0"/>
-        <v>-0.98087665560368908</v>
-      </c>
-      <c r="S47" s="356">
+        <v>-0.96350734820343975</v>
+      </c>
+      <c r="S47" s="317">
         <f t="shared" si="1"/>
-        <v>0.5627675154822025</v>
+        <v>0.54975465219277697</v>
       </c>
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.25">
@@ -31994,19 +31998,19 @@
       </c>
       <c r="P48">
         <f t="shared" si="2"/>
-        <v>-2.5029999999999957</v>
-      </c>
-      <c r="Q48" s="350">
+        <v>-2.5132741228718292</v>
+      </c>
+      <c r="Q48" s="311">
         <f t="shared" si="3"/>
-        <v>0.57882118137192895</v>
-      </c>
-      <c r="R48" s="358">
+        <v>0.61803398874987425</v>
+      </c>
+      <c r="R48" s="319">
         <f t="shared" si="0"/>
-        <v>-1.1921320474796704</v>
-      </c>
-      <c r="S48" s="355">
+        <v>-1.1755705045849549</v>
+      </c>
+      <c r="S48" s="316">
         <f t="shared" si="1"/>
-        <v>0.74235860794953468</v>
+        <v>0.72654252800536923</v>
       </c>
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.25">
@@ -32015,19 +32019,19 @@
       </c>
       <c r="P49">
         <f t="shared" si="2"/>
-        <v>-2.3769999999999958</v>
-      </c>
-      <c r="Q49" s="351">
+        <v>-2.3876104167282373</v>
+      </c>
+      <c r="Q49" s="312">
         <f t="shared" si="3"/>
-        <v>8.3198025135866147E-2</v>
-      </c>
-      <c r="R49" s="359">
+        <v>0.1255810390586044</v>
+      </c>
+      <c r="R49" s="320">
         <f t="shared" si="0"/>
-        <v>-1.3844861772022623</v>
-      </c>
-      <c r="S49" s="356">
+        <v>-1.3690942118573854</v>
+      </c>
+      <c r="S49" s="317">
         <f t="shared" si="1"/>
-        <v>0.95923131106856674</v>
+        <v>0.93906250581750284</v>
       </c>
     </row>
     <row r="50" spans="15:19" x14ac:dyDescent="0.25">
@@ -32036,19 +32040,19 @@
       </c>
       <c r="P50">
         <f t="shared" si="2"/>
-        <v>-2.2509999999999959</v>
-      </c>
-      <c r="Q50" s="350">
+        <v>-2.2619467105846454</v>
+      </c>
+      <c r="Q50" s="311">
         <f t="shared" si="3"/>
-        <v>-0.4176806378147449</v>
-      </c>
-      <c r="R50" s="358">
+        <v>-0.37476262917147196</v>
+      </c>
+      <c r="R50" s="319">
         <f t="shared" si="0"/>
-        <v>-1.5548892686666613</v>
-      </c>
-      <c r="S50" s="355">
+        <v>-1.5410264855515858</v>
+      </c>
+      <c r="S50" s="316">
         <f t="shared" si="1"/>
-        <v>1.2360965520547245</v>
+        <v>1.2087923504096234</v>
       </c>
     </row>
     <row r="51" spans="15:19" x14ac:dyDescent="0.25">
@@ -32057,19 +32061,19 @@
       </c>
       <c r="P51">
         <f t="shared" si="2"/>
-        <v>-2.124999999999996</v>
-      </c>
-      <c r="Q51" s="351">
+        <v>-2.1362830044410535</v>
+      </c>
+      <c r="Q51" s="312">
         <f t="shared" si="3"/>
-        <v>-0.89217497982759986</v>
-      </c>
-      <c r="R51" s="359">
+        <v>-0.85155858313016686</v>
+      </c>
+      <c r="R51" s="320">
         <f t="shared" si="0"/>
-        <v>-1.7006395796369083</v>
-      </c>
-      <c r="S51" s="356">
+        <v>-1.6886558510040366</v>
+      </c>
+      <c r="S51" s="317">
         <f t="shared" si="1"/>
-        <v>1.6157594239734745</v>
+        <v>1.5757478599686718</v>
       </c>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.25">
@@ -32078,19 +32082,19 @@
       </c>
       <c r="P52">
         <f t="shared" si="2"/>
-        <v>-1.9989999999999961</v>
-      </c>
-      <c r="Q52" s="350">
+        <v>-2.0106192982974616</v>
+      </c>
+      <c r="Q52" s="311">
         <f t="shared" si="3"/>
-        <v>-1.3103118351167158</v>
-      </c>
-      <c r="R52" s="358">
+        <v>-1.2748479794973984</v>
+      </c>
+      <c r="R52" s="319">
         <f t="shared" si="0"/>
-        <v>-1.8194262378883943</v>
-      </c>
-      <c r="S52" s="355">
+        <v>-1.8096541049320443</v>
+      </c>
+      <c r="S52" s="316">
         <f t="shared" si="1"/>
-        <v>2.1908269093209292</v>
+        <v>2.1251081731572365</v>
       </c>
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.25">
@@ -32099,19 +32103,19 @@
       </c>
       <c r="P53">
         <f t="shared" si="2"/>
-        <v>-1.8729999999999962</v>
-      </c>
-      <c r="Q53" s="351">
+        <v>-1.8849555921538699</v>
+      </c>
+      <c r="Q53" s="312">
         <f t="shared" si="3"/>
-        <v>-1.6456780641035582</v>
-      </c>
-      <c r="R53" s="359">
+        <v>-1.6180339887499091</v>
+      </c>
+      <c r="R53" s="320">
         <f t="shared" si="0"/>
-        <v>-1.909365880103538</v>
-      </c>
-      <c r="S53" s="356">
+        <v>-1.9021130325903108</v>
+      </c>
+      <c r="S53" s="317">
         <f t="shared" si="1"/>
-        <v>3.2076733614779225</v>
+        <v>3.0776835371753171</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.25">
@@ -32120,19 +32124,19 @@
       </c>
       <c r="P54">
         <f t="shared" si="2"/>
-        <v>-1.7469999999999963</v>
-      </c>
-      <c r="Q54" s="350">
+        <v>-1.7592918860102782</v>
+      </c>
+      <c r="Q54" s="311">
         <f t="shared" si="3"/>
-        <v>-1.8770890357179211</v>
-      </c>
-      <c r="R54" s="358">
+        <v>-1.8595529717765116</v>
+      </c>
+      <c r="R54" s="319">
         <f t="shared" si="0"/>
-        <v>-1.9690325126106782</v>
-      </c>
-      <c r="S54" s="355">
+        <v>-1.9645745014573797</v>
+      </c>
+      <c r="S54" s="316">
         <f t="shared" si="1"/>
-        <v>5.6163940982019902</v>
+        <v>5.2421835811133484</v>
       </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.25">
@@ -32141,19 +32145,19 @@
       </c>
       <c r="P55">
         <f t="shared" si="2"/>
-        <v>-1.6209999999999964</v>
-      </c>
-      <c r="Q55" s="351">
+        <v>-1.6336281798666865</v>
+      </c>
+      <c r="Q55" s="312">
         <f t="shared" si="3"/>
-        <v>-1.9899268318883914</v>
-      </c>
-      <c r="R55" s="359">
+        <v>-1.9842294026289586</v>
+      </c>
+      <c r="R55" s="320">
         <f t="shared" si="0"/>
-        <v>-1.9974801205239545</v>
-      </c>
-      <c r="S55" s="356">
+        <v>-1.9960534568565438</v>
+      </c>
+      <c r="S55" s="317">
         <f t="shared" si="1"/>
-        <v>19.902123863539483</v>
+        <v>15.894544843866818</v>
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.25">
@@ -32162,19 +32166,19 @@
       </c>
       <c r="P56">
         <f t="shared" si="2"/>
-        <v>-1.4949999999999966</v>
-      </c>
-      <c r="Q56" s="350">
+        <v>-1.5079644737230948</v>
+      </c>
+      <c r="Q56" s="311">
         <f t="shared" si="3"/>
-        <v>-1.97706364165479</v>
-      </c>
-      <c r="R56" s="358">
+        <v>-1.9842294026289526</v>
+      </c>
+      <c r="R56" s="319">
         <f t="shared" si="0"/>
-        <v>-1.9942576668160987</v>
-      </c>
-      <c r="S56" s="355">
+        <v>-1.9960534568565425</v>
+      </c>
+      <c r="S56" s="316">
         <f t="shared" si="1"/>
-        <v>-13.167976346854354</v>
+        <v>-15.894544843863802</v>
       </c>
     </row>
     <row r="57" spans="15:19" x14ac:dyDescent="0.25">
@@ -32183,19 +32187,19 @@
       </c>
       <c r="P57">
         <f t="shared" si="2"/>
-        <v>-1.3689999999999967</v>
-      </c>
-      <c r="Q57" s="351">
+        <v>-1.3823007675795032</v>
+      </c>
+      <c r="Q57" s="312">
         <f t="shared" si="3"/>
-        <v>-1.8393120153454783</v>
-      </c>
-      <c r="R57" s="359">
+        <v>-1.8595529717764943</v>
+      </c>
+      <c r="R57" s="320">
         <f t="shared" si="0"/>
-        <v>-1.9594162435137354</v>
-      </c>
-      <c r="S57" s="356">
+        <v>-1.9645745014573752</v>
+      </c>
+      <c r="S57" s="317">
         <f t="shared" si="1"/>
-        <v>-4.8880428238793456</v>
+        <v>-5.2421835811130091</v>
       </c>
     </row>
     <row r="58" spans="15:19" x14ac:dyDescent="0.25">
@@ -32204,19 +32208,19 @@
       </c>
       <c r="P58">
         <f t="shared" si="2"/>
-        <v>-1.2429999999999968</v>
-      </c>
-      <c r="Q58" s="350">
+        <v>-1.2566370614359115</v>
+      </c>
+      <c r="Q58" s="311">
         <f t="shared" si="3"/>
-        <v>-1.5853735368721693</v>
-      </c>
-      <c r="R58" s="358">
+        <v>-1.6180339887498811</v>
+      </c>
+      <c r="R58" s="319">
         <f t="shared" si="0"/>
-        <v>-1.8935082616329324</v>
-      </c>
-      <c r="S58" s="355">
+        <v>-1.9021130325903035</v>
+      </c>
+      <c r="S58" s="316">
         <f t="shared" si="1"/>
-        <v>-2.9406185723143499</v>
+        <v>-3.0776835371751923</v>
       </c>
     </row>
     <row r="59" spans="15:19" x14ac:dyDescent="0.25">
@@ -32225,19 +32229,19 @@
       </c>
       <c r="P59">
         <f t="shared" si="2"/>
-        <v>-1.1169999999999969</v>
-      </c>
-      <c r="Q59" s="351">
+        <v>-1.1309733552923198</v>
+      </c>
+      <c r="Q59" s="312">
         <f t="shared" si="3"/>
-        <v>-1.2312891564439479</v>
-      </c>
-      <c r="R59" s="359">
+        <v>-1.2748479794973617</v>
+      </c>
+      <c r="R59" s="320">
         <f t="shared" si="0"/>
-        <v>-1.7975786926985833</v>
-      </c>
-      <c r="S59" s="356">
+        <v>-1.809654104932034</v>
+      </c>
+      <c r="S59" s="317">
         <f t="shared" si="1"/>
-        <v>-2.0502480520082926</v>
+        <v>-2.1251081731571708</v>
       </c>
     </row>
     <row r="60" spans="15:19" x14ac:dyDescent="0.25">
@@ -32246,19 +32250,19 @@
       </c>
       <c r="P60">
         <f t="shared" si="2"/>
-        <v>-0.99099999999999688</v>
-      </c>
-      <c r="Q60" s="350">
+        <v>-1.0053096491487281</v>
+      </c>
+      <c r="Q60" s="311">
         <f t="shared" si="3"/>
-        <v>-0.79942590543948244</v>
-      </c>
-      <c r="R60" s="358">
+        <v>-0.85155858313012456</v>
+      </c>
+      <c r="R60" s="319">
         <f t="shared" si="0"/>
-        <v>-1.6731485007133953</v>
-      </c>
-      <c r="S60" s="355">
+        <v>-1.6886558510040239</v>
+      </c>
+      <c r="S60" s="316">
         <f t="shared" si="1"/>
-        <v>-1.5270034016933942</v>
+        <v>-1.5757478599686312</v>
       </c>
     </row>
     <row r="61" spans="15:19" x14ac:dyDescent="0.25">
@@ -32267,19 +32271,19 @@
       </c>
       <c r="P61">
         <f t="shared" si="2"/>
-        <v>-0.86499999999999688</v>
-      </c>
-      <c r="Q61" s="351">
+        <v>-0.87964594300513643</v>
+      </c>
+      <c r="Q61" s="312">
         <f t="shared" si="3"/>
-        <v>-0.31706400128838325</v>
-      </c>
-      <c r="R61" s="359">
+        <v>-0.37476262917142694</v>
+      </c>
+      <c r="R61" s="320">
         <f t="shared" si="0"/>
-        <v>-1.5221905272627285</v>
-      </c>
-      <c r="S61" s="356">
+        <v>-1.5410264855515712</v>
+      </c>
+      <c r="S61" s="317">
         <f t="shared" si="1"/>
-        <v>-1.1733706337693091</v>
+        <v>-1.2087923504095952</v>
       </c>
     </row>
     <row r="62" spans="15:19" x14ac:dyDescent="0.25">
@@ -32288,19 +32292,19 @@
       </c>
       <c r="P62">
         <f t="shared" si="2"/>
-        <v>-0.73899999999999688</v>
-      </c>
-      <c r="Q62" s="350">
+        <v>-0.75398223686154475</v>
+      </c>
+      <c r="Q62" s="311">
         <f t="shared" si="3"/>
-        <v>0.18532640696472361</v>
-      </c>
-      <c r="R62" s="358">
+        <v>0.1255810390586492</v>
+      </c>
+      <c r="R62" s="319">
         <f t="shared" si="0"/>
-        <v>-1.3470982120971271</v>
-      </c>
-      <c r="S62" s="355">
+        <v>-1.3690942118573692</v>
+      </c>
+      <c r="S62" s="316">
         <f t="shared" si="1"/>
-        <v>-0.91125747300289139</v>
+        <v>-0.93906250581748174</v>
       </c>
     </row>
     <row r="63" spans="15:19" x14ac:dyDescent="0.25">
@@ -32309,19 +32313,19 @@
       </c>
       <c r="P63">
         <f t="shared" si="2"/>
-        <v>-0.61299999999999688</v>
-      </c>
-      <c r="Q63" s="351">
+        <v>-0.62831853071795307</v>
+      </c>
+      <c r="Q63" s="312">
         <f t="shared" si="3"/>
-        <v>0.67600999676155527</v>
-      </c>
-      <c r="R63" s="359">
+        <v>0.61803398874991611</v>
+      </c>
+      <c r="R63" s="320">
         <f t="shared" si="0"/>
-        <v>-1.1506476451279275</v>
-      </c>
-      <c r="S63" s="356">
+        <v>-1.1755705045849372</v>
+      </c>
+      <c r="S63" s="317">
         <f t="shared" si="1"/>
-        <v>-0.70339372111986542</v>
+        <v>-0.72654252800535235</v>
       </c>
     </row>
     <row r="64" spans="15:19" x14ac:dyDescent="0.25">
@@ -32330,19 +32334,19 @@
       </c>
       <c r="P64">
         <f t="shared" si="2"/>
-        <v>-0.48699999999999688</v>
-      </c>
-      <c r="Q64" s="350">
+        <v>-0.50265482457436139</v>
+      </c>
+      <c r="Q64" s="311">
         <f t="shared" si="3"/>
-        <v>1.1239909494311202</v>
-      </c>
-      <c r="R64" s="358">
+        <v>1.071653589958012</v>
+      </c>
+      <c r="R64" s="319">
         <f t="shared" si="0"/>
-        <v>-0.93595355150182513</v>
-      </c>
-      <c r="S64" s="355">
+        <v>-0.96350734820342088</v>
+      </c>
+      <c r="S64" s="316">
         <f t="shared" si="1"/>
-        <v>-0.52954078276503691</v>
+        <v>-0.54975465219276287</v>
       </c>
     </row>
     <row r="65" spans="15:19" x14ac:dyDescent="0.25">
@@ -32351,19 +32355,19 @@
       </c>
       <c r="P65">
         <f t="shared" si="2"/>
-        <v>-0.36099999999999688</v>
-      </c>
-      <c r="Q65" s="351">
+        <v>-0.37699111843076966</v>
+      </c>
+      <c r="Q65" s="312">
         <f t="shared" si="3"/>
-        <v>1.5009709141303569</v>
-      </c>
-      <c r="R65" s="359">
+        <v>1.4579372548428382</v>
+      </c>
+      <c r="R65" s="320">
         <f t="shared" si="0"/>
-        <v>-0.70641990761136042</v>
-      </c>
-      <c r="S65" s="356">
+        <v>-0.73624910536934562</v>
+      </c>
+      <c r="S65" s="317">
         <f t="shared" si="1"/>
-        <v>-0.37754496102267854</v>
+        <v>-0.39592800879771484</v>
       </c>
     </row>
     <row r="66" spans="15:19" x14ac:dyDescent="0.25">
@@ -32372,19 +32376,19 @@
       </c>
       <c r="P66">
         <f t="shared" si="2"/>
-        <v>-0.23499999999999688</v>
-      </c>
-      <c r="Q66" s="350">
+        <v>-0.25132741228717792</v>
+      </c>
+      <c r="Q66" s="311">
         <f t="shared" si="3"/>
-        <v>1.7831365763906635</v>
-      </c>
-      <c r="R66" s="358">
+        <v>1.7526133600877378</v>
+      </c>
+      <c r="R66" s="319">
         <f t="shared" si="0"/>
-        <v>-0.46568597102482751</v>
-      </c>
-      <c r="S66" s="355">
+        <v>-0.49737977432969882</v>
+      </c>
+      <c r="S66" s="316">
         <f t="shared" si="1"/>
-        <v>-0.23942370370944582</v>
+        <v>-0.25675636036772087</v>
       </c>
     </row>
     <row r="67" spans="15:19" x14ac:dyDescent="0.25">
@@ -32393,19 +32397,19 @@
       </c>
       <c r="P67">
         <f t="shared" si="2"/>
-        <v>-0.10899999999999688</v>
-      </c>
-      <c r="Q67" s="351">
+        <v>-0.12566370614358618</v>
+      </c>
+      <c r="Q67" s="312">
         <f t="shared" si="3"/>
-        <v>1.9526639129830954</v>
-      </c>
-      <c r="R67" s="359">
+        <v>1.9371663222572677</v>
+      </c>
+      <c r="R67" s="320">
         <f t="shared" si="0"/>
-        <v>-0.21756858003145702</v>
-      </c>
-      <c r="S67" s="356">
+        <v>-0.25066646712859747</v>
+      </c>
+      <c r="S67" s="317">
         <f t="shared" si="1"/>
-        <v>-0.10943373774527267</v>
+        <v>-0.12632937844610254</v>
       </c>
     </row>
     <row r="68" spans="15:19" x14ac:dyDescent="0.25">
@@ -32414,19 +32418,19 @@
       </c>
       <c r="P68">
         <f t="shared" si="2"/>
-        <v>1.7000000000003124E-2</v>
-      </c>
-      <c r="Q68" s="350">
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="Q68" s="311">
         <f t="shared" si="3"/>
-        <v>1.9988441113570419</v>
-      </c>
-      <c r="R68" s="358">
+        <v>2</v>
+      </c>
+      <c r="R68" s="319">
         <f t="shared" si="0"/>
-        <v>3.3998362357003702E-2</v>
-      </c>
-      <c r="S68" s="355">
+        <v>1.1102230246251565E-14</v>
+      </c>
+      <c r="S68" s="316">
         <f t="shared" si="1"/>
-        <v>1.7001637856006207E-2</v>
+        <v>5.5511151231257827E-15</v>
       </c>
     </row>
     <row r="69" spans="15:19" x14ac:dyDescent="0.25">
@@ -32435,19 +32439,19 @@
       </c>
       <c r="P69">
         <f t="shared" si="2"/>
-        <v>0.14300000000000312</v>
-      </c>
-      <c r="Q69" s="351">
+        <v>0.12566370614359729</v>
+      </c>
+      <c r="Q69" s="312">
         <f t="shared" si="3"/>
-        <v>1.9187600308443546</v>
-      </c>
-      <c r="R69" s="359">
+        <v>1.9371663222572566</v>
+      </c>
+      <c r="R69" s="320">
         <f t="shared" si="0"/>
-        <v>0.28502626046672513</v>
-      </c>
-      <c r="S69" s="356">
+        <v>0.25066646712861951</v>
+      </c>
+      <c r="S69" s="317">
         <f t="shared" si="1"/>
-        <v>0.14398277515784177</v>
+        <v>0.12632937844611383</v>
       </c>
     </row>
     <row r="70" spans="15:19" x14ac:dyDescent="0.25">
@@ -32456,19 +32460,19 @@
       </c>
       <c r="P70">
         <f t="shared" si="2"/>
-        <v>0.26900000000000313</v>
-      </c>
-      <c r="Q70" s="350">
+        <v>0.25132741228718902</v>
+      </c>
+      <c r="Q70" s="311">
         <f t="shared" si="3"/>
-        <v>1.7174704744896434</v>
-      </c>
-      <c r="R70" s="358">
+        <v>1.7526133600877165</v>
+      </c>
+      <c r="R70" s="319">
         <f t="shared" si="0"/>
-        <v>0.531535065174779</v>
-      </c>
-      <c r="S70" s="355">
+        <v>0.49737977432972036</v>
+      </c>
+      <c r="S70" s="316">
         <f t="shared" si="1"/>
-        <v>0.27568183832459875</v>
+        <v>0.25675636036773269</v>
       </c>
     </row>
     <row r="71" spans="15:19" x14ac:dyDescent="0.25">
@@ -32477,19 +32481,19 @@
       </c>
       <c r="P71">
         <f t="shared" si="2"/>
-        <v>0.39500000000000313</v>
-      </c>
-      <c r="Q71" s="351">
+        <v>0.37699111843078076</v>
+      </c>
+      <c r="Q71" s="312">
         <f t="shared" si="3"/>
-        <v>1.4076906313044633</v>
-      </c>
-      <c r="R71" s="359">
+        <v>1.4579372548428078</v>
+      </c>
+      <c r="R71" s="320">
         <f t="shared" si="0"/>
-        <v>0.76961637761649582</v>
-      </c>
-      <c r="S71" s="356">
+        <v>0.73624910536936627</v>
+      </c>
+      <c r="S71" s="317">
         <f t="shared" si="1"/>
-        <v>0.41691183224909656</v>
+        <v>0.39592800879772772</v>
       </c>
     </row>
     <row r="72" spans="15:19" x14ac:dyDescent="0.25">
@@ -32498,19 +32502,19 @@
       </c>
       <c r="P72">
         <f t="shared" si="2"/>
-        <v>0.52100000000000313</v>
-      </c>
-      <c r="Q72" s="350">
+        <v>0.50265482457437249</v>
+      </c>
+      <c r="Q72" s="311">
         <f t="shared" si="3"/>
-        <v>1.0089888749759628</v>
-      </c>
-      <c r="R72" s="358">
+        <v>1.0716535899579744</v>
+      </c>
+      <c r="R72" s="319">
         <f t="shared" si="0"/>
-        <v>0.99549541687746468</v>
-      </c>
-      <c r="S72" s="355">
+        <v>0.96350734820344031</v>
+      </c>
+      <c r="S72" s="316">
         <f t="shared" si="1"/>
-        <v>0.57389041844288291</v>
+        <v>0.5497546521927773</v>
       </c>
     </row>
     <row r="73" spans="15:19" x14ac:dyDescent="0.25">
@@ -32519,19 +32523,19 @@
       </c>
       <c r="P73">
         <f t="shared" si="2"/>
-        <v>0.64700000000000313</v>
-      </c>
-      <c r="Q73" s="351">
+        <v>0.62831853071796417</v>
+      </c>
+      <c r="Q73" s="312">
         <f t="shared" si="3"/>
-        <v>0.54655065616916398</v>
-      </c>
-      <c r="R73" s="359">
+        <v>0.61803398874987381</v>
+      </c>
+      <c r="R73" s="320">
         <f t="shared" si="0"/>
-        <v>1.2055908691719741</v>
-      </c>
-      <c r="S73" s="356">
+        <v>1.1755705045849552</v>
+      </c>
+      <c r="S73" s="317">
         <f t="shared" si="1"/>
-        <v>0.75548142405864793</v>
+        <v>0.72654252800536934</v>
       </c>
     </row>
     <row r="74" spans="15:19" x14ac:dyDescent="0.25">
@@ -32540,19 +32544,19 @@
       </c>
       <c r="P74">
         <f t="shared" si="2"/>
-        <v>0.77300000000000313</v>
-      </c>
-      <c r="Q74" s="350">
+        <v>0.75398223686155585</v>
+      </c>
+      <c r="Q74" s="311">
         <f t="shared" si="3"/>
-        <v>4.9587571674182825E-2</v>
-      </c>
-      <c r="R74" s="358">
+        <v>0.12558103905860488</v>
+      </c>
+      <c r="R74" s="319">
         <f t="shared" si="0"/>
-        <v>1.3965716695987418</v>
-      </c>
-      <c r="S74" s="355">
+        <v>1.3690942118573852</v>
+      </c>
+      <c r="S74" s="316">
         <f t="shared" si="1"/>
-        <v>0.97550609757446871</v>
+        <v>0.93906250581750261</v>
       </c>
     </row>
     <row r="75" spans="15:19" x14ac:dyDescent="0.25">
@@ -32561,19 +32565,19 @@
       </c>
       <c r="P75">
         <f t="shared" si="2"/>
-        <v>0.89900000000000313</v>
-      </c>
-      <c r="Q75" s="351">
+        <v>0.87964594300514753</v>
+      </c>
+      <c r="Q75" s="312">
         <f t="shared" si="3"/>
-        <v>-0.45050789265152419</v>
-      </c>
-      <c r="R75" s="359">
+        <v>-0.37476262917147057</v>
+      </c>
+      <c r="R75" s="320">
         <f t="shared" si="0"/>
-        <v>1.5654098161987884</v>
-      </c>
-      <c r="S75" s="356">
+        <v>1.5410264855515854</v>
+      </c>
+      <c r="S75" s="317">
         <f t="shared" si="1"/>
-        <v>1.2575734751398955</v>
+        <v>1.2087923504096225</v>
       </c>
     </row>
     <row r="76" spans="15:19" x14ac:dyDescent="0.25">
@@ -32582,19 +32586,19 @@
       </c>
       <c r="P76">
         <f t="shared" si="2"/>
-        <v>1.025000000000003</v>
-      </c>
-      <c r="Q76" s="350">
+        <v>1.0053096491487392</v>
+      </c>
+      <c r="Q76" s="311">
         <f t="shared" si="3"/>
-        <v>-0.92214538275343649</v>
-      </c>
-      <c r="R76" s="358">
+        <v>-0.85155858313016475</v>
+      </c>
+      <c r="R76" s="319">
         <f t="shared" si="0"/>
-        <v>1.7094283789481899</v>
-      </c>
-      <c r="S76" s="355">
+        <v>1.6886558510040359</v>
+      </c>
+      <c r="S76" s="316">
         <f t="shared" si="1"/>
-        <v>1.6465344294765589</v>
+        <v>1.5757478599686698</v>
       </c>
     </row>
     <row r="77" spans="15:19" x14ac:dyDescent="0.25">
@@ -32603,19 +32607,19 @@
       </c>
       <c r="P77">
         <f t="shared" si="2"/>
-        <v>1.1510000000000029</v>
-      </c>
-      <c r="Q77" s="351">
+        <v>1.1309733552923309</v>
+      </c>
+      <c r="Q77" s="312">
         <f t="shared" si="3"/>
-        <v>-1.3355321963166202</v>
-      </c>
-      <c r="R77" s="359">
+        <v>-1.2748479794973959</v>
+      </c>
+      <c r="R77" s="320">
         <f t="shared" si="0"/>
-        <v>1.8263439425027861</v>
-      </c>
-      <c r="S77" s="356">
+        <v>1.8096541049320436</v>
+      </c>
+      <c r="S77" s="317">
         <f t="shared" si="1"/>
-        <v>2.2405033486537196</v>
+        <v>2.1251081731572321</v>
       </c>
     </row>
     <row r="78" spans="15:19" x14ac:dyDescent="0.25">
@@ -32624,19 +32628,19 @@
       </c>
       <c r="P78">
         <f t="shared" si="2"/>
-        <v>1.2770000000000028</v>
-      </c>
-      <c r="Q78" s="350">
+        <v>1.2566370614359226</v>
+      </c>
+      <c r="Q78" s="311">
         <f t="shared" si="3"/>
-        <v>-1.6645552474734828</v>
-      </c>
-      <c r="R78" s="358">
+        <v>-1.6180339887499073</v>
+      </c>
+      <c r="R78" s="319">
         <f t="shared" si="0"/>
-        <v>1.9143028097648196</v>
-      </c>
-      <c r="S78" s="355">
+        <v>1.9021130325903104</v>
+      </c>
+      <c r="S78" s="316">
         <f t="shared" si="1"/>
-        <v>3.3052182004054793</v>
+        <v>3.0776835371753086</v>
       </c>
     </row>
     <row r="79" spans="15:19" x14ac:dyDescent="0.25">
@@ -32645,19 +32649,19 @@
       </c>
       <c r="P79">
         <f t="shared" si="2"/>
-        <v>1.4030000000000027</v>
-      </c>
-      <c r="Q79" s="351">
+        <v>1.3823007675795143</v>
+      </c>
+      <c r="Q79" s="312">
         <f t="shared" si="3"/>
-        <v>-1.888430595117583</v>
-      </c>
-      <c r="R79" s="359">
+        <v>-1.8595529717765105</v>
+      </c>
+      <c r="R79" s="320">
         <f t="shared" si="0"/>
-        <v>1.9719103922637009</v>
-      </c>
-      <c r="S79" s="356">
+        <v>1.9645745014573792</v>
+      </c>
+      <c r="S79" s="317">
         <f t="shared" si="1"/>
-        <v>5.903568646087118</v>
+        <v>5.2421835811133253</v>
       </c>
     </row>
     <row r="80" spans="15:19" x14ac:dyDescent="0.25">
@@ -32666,19 +32670,19 @@
       </c>
       <c r="P80">
         <f t="shared" si="2"/>
-        <v>1.5290000000000026</v>
-      </c>
-      <c r="Q80" s="350">
+        <v>1.5079644737231059</v>
+      </c>
+      <c r="Q80" s="311">
         <f t="shared" si="3"/>
-        <v>-1.993016336351058</v>
-      </c>
-      <c r="R80" s="358">
+        <v>-1.9842294026289582</v>
+      </c>
+      <c r="R80" s="319">
         <f t="shared" si="0"/>
-        <v>1.9982533213662022</v>
-      </c>
-      <c r="S80" s="355">
+        <v>1.9960534568565438</v>
+      </c>
+      <c r="S80" s="316">
         <f t="shared" si="1"/>
-        <v>23.911613719025262</v>
+        <v>15.894544843866617</v>
       </c>
     </row>
     <row r="81" spans="15:19" x14ac:dyDescent="0.25">
@@ -32687,19 +32691,19 @@
       </c>
       <c r="P81">
         <f t="shared" si="2"/>
-        <v>1.6550000000000025</v>
-      </c>
-      <c r="Q81" s="351">
+        <v>1.6336281798666976</v>
+      </c>
+      <c r="Q81" s="312">
         <f t="shared" si="3"/>
-        <v>-1.9717059313624044</v>
-      </c>
-      <c r="R81" s="359">
+        <v>-1.9842294026289531</v>
+      </c>
+      <c r="R81" s="320">
         <f t="shared" si="0"/>
-        <v>1.9929139297426781</v>
-      </c>
-      <c r="S81" s="356">
+        <v>1.9960534568565425</v>
+      </c>
+      <c r="S81" s="317">
         <f t="shared" si="1"/>
-        <v>-11.847885307064628</v>
+        <v>-15.894544843864002</v>
       </c>
     </row>
     <row r="82" spans="15:19" x14ac:dyDescent="0.25">
@@ -32708,19 +32712,19 @@
       </c>
       <c r="P82">
         <f t="shared" si="2"/>
-        <v>1.7810000000000024</v>
-      </c>
-      <c r="Q82" s="350">
+        <v>1.7592918860102893</v>
+      </c>
+      <c r="Q82" s="311">
         <f t="shared" si="3"/>
-        <v>-1.8258455296103953</v>
-      </c>
-      <c r="R82" s="358">
+        <v>-1.8595529717764954</v>
+      </c>
+      <c r="R82" s="319">
         <f t="shared" si="0"/>
-        <v>1.9559768734855725</v>
-      </c>
-      <c r="S82" s="355">
+        <v>1.9645745014573754</v>
+      </c>
+      <c r="S82" s="316">
         <f t="shared" si="1"/>
-        <v>-4.6870156339738278</v>
+        <v>-5.2421835811130322</v>
       </c>
     </row>
     <row r="83" spans="15:19" x14ac:dyDescent="0.25">
@@ -32729,19 +32733,19 @@
       </c>
       <c r="P83">
         <f t="shared" si="2"/>
-        <v>1.9070000000000022</v>
-      </c>
-      <c r="Q83" s="351">
+        <v>1.884955592153881</v>
+      </c>
+      <c r="Q83" s="312">
         <f t="shared" si="3"/>
-        <v>-1.5646489353835642</v>
-      </c>
-      <c r="R83" s="359">
+        <v>-1.6180339887498829</v>
+      </c>
+      <c r="R83" s="320">
         <f t="shared" ref="R83:R118" si="4">$G$9*SIN($H$9*P83+$I$9)+$J$9</f>
-        <v>1.8880277898864637</v>
-      </c>
-      <c r="S83" s="356">
+        <v>1.902113032590304</v>
+      </c>
+      <c r="S83" s="317">
         <f t="shared" ref="S83:S118" si="5">$G$11*TAN($H$11*P83+$I$11)+$J$11</f>
-        <v>-2.8614659143282859</v>
+        <v>-3.0776835371752007</v>
       </c>
     </row>
     <row r="84" spans="15:19" x14ac:dyDescent="0.25">
@@ -32750,19 +32754,19 @@
       </c>
       <c r="P84">
         <f t="shared" ref="P84:P118" si="6">P83+$H$15</f>
-        <v>2.0330000000000021</v>
-      </c>
-      <c r="Q84" s="350">
+        <v>2.0106192982974727</v>
+      </c>
+      <c r="Q84" s="311">
         <f t="shared" ref="Q84:Q118" si="7">$G$7*COS($H$7*P84+$I$8)+$J$8</f>
-        <v>-1.204615584245851</v>
-      </c>
-      <c r="R84" s="358">
+        <v>-1.2748479794973639</v>
+      </c>
+      <c r="R84" s="319">
         <f t="shared" si="4"/>
-        <v>1.790144012152612</v>
-      </c>
-      <c r="S84" s="355">
+        <v>1.8096541049320347</v>
+      </c>
+      <c r="S84" s="316">
         <f t="shared" si="5"/>
-        <v>-2.0072405939160722</v>
+        <v>-2.1251081731571753</v>
       </c>
     </row>
     <row r="85" spans="15:19" x14ac:dyDescent="0.25">
@@ -32771,19 +32775,19 @@
       </c>
       <c r="P85">
         <f t="shared" si="6"/>
-        <v>2.159000000000002</v>
-      </c>
-      <c r="Q85" s="351">
+        <v>2.1362830044410646</v>
+      </c>
+      <c r="Q85" s="312">
         <f t="shared" si="7"/>
-        <v>-0.76848829600909074</v>
-      </c>
-      <c r="R85" s="359">
+        <v>-0.85155858313012667</v>
+      </c>
+      <c r="R85" s="320">
         <f t="shared" si="4"/>
-        <v>1.6638774882812408</v>
-      </c>
-      <c r="S85" s="356">
+        <v>1.6886558510040246</v>
+      </c>
+      <c r="S85" s="317">
         <f t="shared" si="5"/>
-        <v>-1.499346720636185</v>
+        <v>-1.5757478599686332</v>
       </c>
     </row>
     <row r="86" spans="15:19" x14ac:dyDescent="0.25">
@@ -32792,19 +32796,19 @@
       </c>
       <c r="P86">
         <f t="shared" si="6"/>
-        <v>2.2850000000000019</v>
-      </c>
-      <c r="Q86" s="350">
+        <v>2.2619467105846565</v>
+      </c>
+      <c r="Q86" s="311">
         <f t="shared" si="7"/>
-        <v>-0.28381664156733977</v>
-      </c>
-      <c r="R86" s="358">
+        <v>-0.37476262917142833</v>
+      </c>
+      <c r="R86" s="319">
         <f t="shared" si="4"/>
-        <v>1.5112301749129216</v>
-      </c>
-      <c r="S86" s="355">
+        <v>1.5410264855515716</v>
+      </c>
+      <c r="S86" s="316">
         <f t="shared" si="5"/>
-        <v>-1.1535828036201592</v>
+        <v>-1.2087923504095961</v>
       </c>
     </row>
     <row r="87" spans="15:19" x14ac:dyDescent="0.25">
@@ -32813,19 +32817,19 @@
       </c>
       <c r="P87">
         <f t="shared" si="6"/>
-        <v>2.4110000000000018</v>
-      </c>
-      <c r="Q87" s="351">
+        <v>2.3876104167282484</v>
+      </c>
+      <c r="Q87" s="312">
         <f t="shared" si="7"/>
-        <v>0.2187833262330737</v>
-      </c>
-      <c r="R87" s="359">
+        <v>0.12558103905864873</v>
+      </c>
+      <c r="R87" s="320">
         <f t="shared" si="4"/>
-        <v>1.3346222962946956</v>
-      </c>
-      <c r="S87" s="356">
+        <v>1.3690942118573692</v>
+      </c>
+      <c r="S87" s="317">
         <f t="shared" si="5"/>
-        <v>-0.89598539218629791</v>
+        <v>-0.93906250581748196</v>
       </c>
     </row>
     <row r="88" spans="15:19" x14ac:dyDescent="0.25">
@@ -32834,19 +32838,19 @@
       </c>
       <c r="P88">
         <f t="shared" si="6"/>
-        <v>2.5370000000000017</v>
-      </c>
-      <c r="Q88" s="350">
+        <v>2.5132741228718403</v>
+      </c>
+      <c r="Q88" s="311">
         <f t="shared" si="7"/>
-        <v>0.70756304724071273</v>
-      </c>
-      <c r="R88" s="358">
+        <v>0.61803398874991644</v>
+      </c>
+      <c r="R88" s="319">
         <f t="shared" si="4"/>
-        <v>1.1368539716072981</v>
-      </c>
-      <c r="S88" s="355">
+        <v>1.1755705045849372</v>
+      </c>
+      <c r="S88" s="316">
         <f t="shared" si="5"/>
-        <v>-0.69090032061945306</v>
+        <v>-0.72654252800535224</v>
       </c>
     </row>
     <row r="89" spans="15:19" x14ac:dyDescent="0.25">
@@ -32855,19 +32859,19 @@
       </c>
       <c r="P89">
         <f t="shared" si="6"/>
-        <v>2.6630000000000016</v>
-      </c>
-      <c r="Q89" s="351">
+        <v>2.6389378290154322</v>
+      </c>
+      <c r="Q89" s="312">
         <f t="shared" si="7"/>
-        <v>1.151646967600835</v>
-      </c>
-      <c r="R89" s="359">
+        <v>1.0716535899580131</v>
+      </c>
+      <c r="R89" s="320">
         <f t="shared" si="4"/>
-        <v>0.92106081905548731</v>
-      </c>
-      <c r="S89" s="356">
+        <v>0.96350734820342032</v>
+      </c>
+      <c r="S89" s="317">
         <f t="shared" si="5"/>
-        <v>-0.51882336520009686</v>
+        <v>-0.54975465219276243</v>
       </c>
     </row>
     <row r="90" spans="15:19" x14ac:dyDescent="0.25">
@@ -32876,19 +32880,19 @@
       </c>
       <c r="P90">
         <f t="shared" si="6"/>
-        <v>2.7890000000000015</v>
-      </c>
-      <c r="Q90" s="350">
+        <v>2.7646015351590241</v>
+      </c>
+      <c r="Q90" s="311">
         <f t="shared" si="7"/>
-        <v>1.5229829067302567</v>
-      </c>
-      <c r="R90" s="358">
+        <v>1.4579372548428395</v>
+      </c>
+      <c r="R90" s="319">
         <f t="shared" si="4"/>
-        <v>0.69066424061894449</v>
-      </c>
-      <c r="S90" s="355">
+        <v>0.73624910536934474</v>
+      </c>
+      <c r="S90" s="316">
         <f t="shared" si="5"/>
-        <v>-0.36796939846559823</v>
+        <v>-0.39592800879771428</v>
       </c>
     </row>
     <row r="91" spans="15:19" x14ac:dyDescent="0.25">
@@ -32897,19 +32901,19 @@
       </c>
       <c r="P91">
         <f t="shared" si="6"/>
-        <v>2.9150000000000014</v>
-      </c>
-      <c r="Q91" s="351">
+        <v>2.890265241302616</v>
+      </c>
+      <c r="Q91" s="312">
         <f t="shared" si="7"/>
-        <v>1.7981140756215379</v>
-      </c>
-      <c r="R91" s="359">
+        <v>1.7526133600877392</v>
+      </c>
+      <c r="R91" s="320">
         <f t="shared" si="4"/>
-        <v>0.44931717569937385</v>
-      </c>
-      <c r="S91" s="356">
+        <v>0.4973797743296976</v>
+      </c>
+      <c r="S91" s="317">
         <f t="shared" si="5"/>
-        <v>-0.2305520658652129</v>
+        <v>-0.2567563603677202</v>
       </c>
     </row>
     <row r="92" spans="15:19" x14ac:dyDescent="0.25">
@@ -32918,19 +32922,19 @@
       </c>
       <c r="P92">
         <f t="shared" si="6"/>
-        <v>3.0410000000000013</v>
-      </c>
-      <c r="Q92" s="350">
+        <v>3.0159289474462079</v>
+      </c>
+      <c r="Q92" s="311">
         <f t="shared" si="7"/>
-        <v>1.9596608104770303</v>
-      </c>
-      <c r="R92" s="358">
+        <v>1.9371663222572686</v>
+      </c>
+      <c r="R92" s="319">
         <f t="shared" si="4"/>
-        <v>0.20084618374011914</v>
-      </c>
-      <c r="S92" s="355">
+        <v>0.25066646712859586</v>
+      </c>
+      <c r="S92" s="316">
         <f t="shared" si="5"/>
-        <v>-0.10093332761480862</v>
+        <v>-0.1263293784461017</v>
       </c>
     </row>
     <row r="93" spans="15:19" x14ac:dyDescent="0.25">
@@ -32939,19 +32943,19 @@
       </c>
       <c r="P93">
         <f t="shared" si="6"/>
-        <v>3.1670000000000011</v>
-      </c>
-      <c r="Q93" s="351">
+        <v>3.1415926535897998</v>
+      </c>
+      <c r="Q93" s="312">
         <f t="shared" si="7"/>
-        <v>1.9974184225633183</v>
-      </c>
-      <c r="R93" s="359">
+        <v>2</v>
+      </c>
+      <c r="R93" s="320">
         <f t="shared" si="4"/>
-        <v>-5.0809225901225066E-2</v>
-      </c>
-      <c r="S93" s="356">
+        <v>-1.3077646604520154E-14</v>
+      </c>
+      <c r="S93" s="317">
         <f t="shared" si="5"/>
-        <v>2.5412814917901309E-2</v>
+        <v>6.5388233022600772E-15</v>
       </c>
     </row>
     <row r="94" spans="15:19" x14ac:dyDescent="0.25">
@@ -32960,19 +32964,19 @@
       </c>
       <c r="P94">
         <f t="shared" si="6"/>
-        <v>3.293000000000001</v>
-      </c>
-      <c r="Q94" s="350">
+        <v>3.2672563597333917</v>
+      </c>
+      <c r="Q94" s="311">
         <f t="shared" si="7"/>
-        <v>1.909001814595692</v>
-      </c>
-      <c r="R94" s="358">
+        <v>1.9371663222572555</v>
+      </c>
+      <c r="R94" s="319">
         <f t="shared" si="4"/>
-        <v>-0.30165905490190098</v>
-      </c>
-      <c r="S94" s="355">
+        <v>-0.25066646712862178</v>
+      </c>
+      <c r="S94" s="316">
         <f t="shared" si="5"/>
-        <v>0.15257501806538845</v>
+        <v>0.126329378446115</v>
       </c>
     </row>
     <row r="95" spans="15:19" x14ac:dyDescent="0.25">
@@ -32981,19 +32985,19 @@
       </c>
       <c r="P95">
         <f t="shared" si="6"/>
-        <v>3.4190000000000009</v>
-      </c>
-      <c r="Q95" s="351">
+        <v>3.3929200658769836</v>
+      </c>
+      <c r="Q95" s="312">
         <f t="shared" si="7"/>
-        <v>1.6999961441075493</v>
-      </c>
-      <c r="R95" s="359">
+        <v>1.7526133600877138</v>
+      </c>
+      <c r="R95" s="320">
         <f t="shared" si="4"/>
-        <v>-0.54772607742598001</v>
-      </c>
-      <c r="S95" s="356">
+        <v>-0.49737977432972291</v>
+      </c>
+      <c r="S95" s="317">
         <f t="shared" si="5"/>
-        <v>0.28474937701885827</v>
+        <v>0.25675636036773414</v>
       </c>
     </row>
     <row r="96" spans="15:19" x14ac:dyDescent="0.25">
@@ -33002,19 +33006,19 @@
       </c>
       <c r="P96">
         <f t="shared" si="6"/>
-        <v>3.5450000000000008</v>
-      </c>
-      <c r="Q96" s="350">
+        <v>3.5185837720205755</v>
+      </c>
+      <c r="Q96" s="311">
         <f t="shared" si="7"/>
-        <v>1.3836040166034722</v>
-      </c>
-      <c r="R96" s="358">
+        <v>1.4579372548428038</v>
+      </c>
+      <c r="R96" s="319">
         <f t="shared" si="4"/>
-        <v>-0.78510889906848458</v>
-      </c>
-      <c r="S96" s="355">
+        <v>-0.73624910536936905</v>
+      </c>
+      <c r="S96" s="316">
         <f t="shared" si="5"/>
-        <v>0.4268154523167666</v>
+        <v>0.39592800879772944</v>
       </c>
     </row>
     <row r="97" spans="15:19" x14ac:dyDescent="0.25">
@@ -33023,19 +33027,19 @@
       </c>
       <c r="P97">
         <f t="shared" si="6"/>
-        <v>3.6710000000000007</v>
-      </c>
-      <c r="Q97" s="351">
+        <v>3.6442474781641674</v>
+      </c>
+      <c r="Q97" s="312">
         <f t="shared" si="7"/>
-        <v>0.9798114948272868</v>
-      </c>
-      <c r="R97" s="359">
+        <v>1.0716535899579689</v>
+      </c>
+      <c r="R97" s="320">
         <f t="shared" si="4"/>
-        <v>-1.0100438134916292</v>
-      </c>
-      <c r="S97" s="356">
+        <v>-0.96350734820344319</v>
+      </c>
+      <c r="S97" s="317">
         <f t="shared" si="5"/>
-        <v>0.58512117803174768</v>
+        <v>0.54975465219277952</v>
       </c>
     </row>
     <row r="98" spans="15:19" x14ac:dyDescent="0.25">
@@ -33044,19 +33048,19 @@
       </c>
       <c r="P98">
         <f t="shared" si="6"/>
-        <v>3.7970000000000006</v>
-      </c>
-      <c r="Q98" s="350">
+        <v>3.7699111843077593</v>
+      </c>
+      <c r="Q98" s="311">
         <f t="shared" si="7"/>
-        <v>0.51412560621159842</v>
-      </c>
-      <c r="R98" s="358">
+        <v>0.6180339887498667</v>
+      </c>
+      <c r="R98" s="319">
         <f t="shared" si="4"/>
-        <v>-1.2189644760157703</v>
-      </c>
-      <c r="S98" s="355">
+        <v>-1.1755705045849583</v>
+      </c>
+      <c r="S98" s="316">
         <f t="shared" si="5"/>
-        <v>0.7687720113361487</v>
+        <v>0.72654252800537222</v>
       </c>
     </row>
     <row r="99" spans="15:19" x14ac:dyDescent="0.25">
@@ -33065,19 +33069,19 @@
       </c>
       <c r="P99">
         <f t="shared" si="6"/>
-        <v>3.9230000000000005</v>
-      </c>
-      <c r="Q99" s="351">
+        <v>3.8955748904513512</v>
+      </c>
+      <c r="Q99" s="312">
         <f t="shared" si="7"/>
-        <v>1.5963098455566684E-2</v>
-      </c>
-      <c r="R99" s="359">
+        <v>0.12558103905859652</v>
+      </c>
+      <c r="R99" s="320">
         <f t="shared" si="4"/>
-        <v>-1.408558448039851</v>
-      </c>
-      <c r="S99" s="356">
+        <v>-1.3690942118573883</v>
+      </c>
+      <c r="S99" s="317">
         <f t="shared" si="5"/>
-        <v>0.99205005061325846</v>
+        <v>0.93906250581750661</v>
       </c>
     </row>
     <row r="100" spans="15:19" x14ac:dyDescent="0.25">
@@ -33086,19 +33090,19 @@
       </c>
       <c r="P100">
         <f t="shared" si="6"/>
-        <v>4.0490000000000004</v>
-      </c>
-      <c r="Q100" s="350">
+        <v>4.0212385965949426</v>
+      </c>
+      <c r="Q100" s="311">
         <f t="shared" si="7"/>
-        <v>-0.48320777663828612</v>
-      </c>
-      <c r="R100" s="358">
+        <v>-0.37476262917147796</v>
+      </c>
+      <c r="R100" s="319">
         <f t="shared" si="4"/>
-        <v>-1.5758197157791516</v>
-      </c>
-      <c r="S100" s="355">
+        <v>-1.5410264855515878</v>
+      </c>
+      <c r="S100" s="316">
         <f t="shared" si="5"/>
-        <v>1.2795094068958039</v>
+        <v>1.2087923504096272</v>
       </c>
     </row>
     <row r="101" spans="15:19" x14ac:dyDescent="0.25">
@@ -33107,19 +33111,19 @@
       </c>
       <c r="P101">
         <f t="shared" si="6"/>
-        <v>4.1750000000000007</v>
-      </c>
-      <c r="Q101" s="351">
+        <v>4.1469023027385346</v>
+      </c>
+      <c r="Q101" s="312">
         <f t="shared" si="7"/>
-        <v>-0.9518550700666224</v>
-      </c>
-      <c r="R101" s="359">
+        <v>-0.85155858313017241</v>
+      </c>
+      <c r="R101" s="320">
         <f t="shared" si="4"/>
-        <v>-1.7180963506353835</v>
-      </c>
-      <c r="S101" s="356">
+        <v>-1.6886558510040381</v>
+      </c>
+      <c r="S101" s="317">
         <f t="shared" si="5"/>
-        <v>1.6781734518083602</v>
+        <v>1.5757478599686772</v>
       </c>
     </row>
     <row r="102" spans="15:19" x14ac:dyDescent="0.25">
@@ -33128,19 +33132,19 @@
       </c>
       <c r="P102">
         <f t="shared" si="6"/>
-        <v>4.301000000000001</v>
-      </c>
-      <c r="Q102" s="350">
+        <v>4.2725660088821265</v>
+      </c>
+      <c r="Q102" s="311">
         <f t="shared" si="7"/>
-        <v>-1.3603749661938487</v>
-      </c>
-      <c r="R102" s="358">
+        <v>-1.274847979497403</v>
+      </c>
+      <c r="R102" s="319">
         <f t="shared" si="4"/>
-        <v>-1.8331325555436107</v>
-      </c>
-      <c r="S102" s="355">
+        <v>-1.8096541049320456</v>
+      </c>
+      <c r="S102" s="316">
         <f t="shared" si="5"/>
-        <v>2.2920872422041083</v>
+        <v>2.125108173157245</v>
       </c>
     </row>
     <row r="103" spans="15:19" x14ac:dyDescent="0.25">
@@ -33149,19 +33153,19 @@
       </c>
       <c r="P103">
         <f t="shared" si="6"/>
-        <v>4.4270000000000014</v>
-      </c>
-      <c r="Q103" s="351">
+        <v>4.3982297150257184</v>
+      </c>
+      <c r="Q103" s="312">
         <f t="shared" si="7"/>
-        <v>-1.6829618157438304</v>
-      </c>
-      <c r="R103" s="359">
+        <v>-1.6180339887499133</v>
+      </c>
+      <c r="R103" s="320">
         <f t="shared" si="4"/>
-        <v>-1.919104430650878</v>
-      </c>
-      <c r="S103" s="356">
+        <v>-1.9021130325903119</v>
+      </c>
+      <c r="S103" s="317">
         <f t="shared" si="5"/>
-        <v>3.4083392987317778</v>
+        <v>3.0776835371753353</v>
       </c>
     </row>
     <row r="104" spans="15:19" x14ac:dyDescent="0.25">
@@ -33170,19 +33174,19 @@
       </c>
       <c r="P104">
         <f t="shared" si="6"/>
-        <v>4.5530000000000017</v>
-      </c>
-      <c r="Q104" s="350">
+        <v>4.5238934211693103</v>
+      </c>
+      <c r="Q104" s="311">
         <f t="shared" si="7"/>
-        <v>-1.8992382437600548</v>
-      </c>
-      <c r="R104" s="358">
+        <v>-1.8595529717765147</v>
+      </c>
+      <c r="R104" s="319">
         <f t="shared" si="4"/>
-        <v>-1.9746488912614453</v>
-      </c>
-      <c r="S104" s="355">
+        <v>-1.9645745014573803</v>
+      </c>
+      <c r="S104" s="316">
         <f t="shared" si="5"/>
-        <v>6.2207395900259765</v>
+        <v>5.2421835811134043</v>
       </c>
     </row>
     <row r="105" spans="15:19" x14ac:dyDescent="0.25">
@@ -33191,19 +33195,19 @@
       </c>
       <c r="P105">
         <f t="shared" si="6"/>
-        <v>4.679000000000002</v>
-      </c>
-      <c r="Q105" s="351">
+        <v>4.6495571273129022</v>
+      </c>
+      <c r="Q105" s="312">
         <f t="shared" si="7"/>
-        <v>-1.9955423608192862</v>
-      </c>
-      <c r="R105" s="359">
+        <v>-1.9842294026289597</v>
+      </c>
+      <c r="R105" s="320">
         <f t="shared" si="4"/>
-        <v>-1.9988852795544036</v>
-      </c>
-      <c r="S105" s="356">
+        <v>-1.9960534568565442</v>
+      </c>
+      <c r="S105" s="317">
         <f t="shared" si="5"/>
-        <v>29.938870635093895</v>
+        <v>15.894544843867376</v>
       </c>
     </row>
     <row r="106" spans="15:19" x14ac:dyDescent="0.25">
@@ -33212,19 +33216,19 @@
       </c>
       <c r="P106">
         <f t="shared" si="6"/>
-        <v>4.8050000000000024</v>
-      </c>
-      <c r="Q106" s="350">
+        <v>4.7752208334564941</v>
+      </c>
+      <c r="Q106" s="311">
         <f t="shared" si="7"/>
-        <v>-1.9657907661074201</v>
-      </c>
-      <c r="R106" s="358">
+        <v>-1.9842294026289515</v>
+      </c>
+      <c r="R106" s="319">
         <f t="shared" si="4"/>
-        <v>-1.9914293274197354</v>
-      </c>
-      <c r="S106" s="355">
+        <v>-1.996053456856542</v>
+      </c>
+      <c r="S106" s="316">
         <f t="shared" si="5"/>
-        <v>-10.766963094173494</v>
+        <v>-15.894544843863189</v>
       </c>
     </row>
     <row r="107" spans="15:19" x14ac:dyDescent="0.25">
@@ -33233,19 +33237,19 @@
       </c>
       <c r="P107">
         <f t="shared" si="6"/>
-        <v>4.9310000000000027</v>
-      </c>
-      <c r="Q107" s="351">
+        <v>4.900884539600086</v>
+      </c>
+      <c r="Q107" s="312">
         <f t="shared" si="7"/>
-        <v>-1.8118628276205282</v>
-      </c>
-      <c r="R107" s="359">
+        <v>-1.8595529717764903</v>
+      </c>
+      <c r="R107" s="320">
         <f t="shared" si="4"/>
-        <v>-1.9523992490319515</v>
-      </c>
-      <c r="S107" s="356">
+        <v>-1.9645745014573741</v>
+      </c>
+      <c r="S107" s="317">
         <f t="shared" si="5"/>
-        <v>-4.5012312539459511</v>
+        <v>-5.2421835811129345</v>
       </c>
     </row>
     <row r="108" spans="15:19" x14ac:dyDescent="0.25">
@@ -33254,19 +33258,19 @@
       </c>
       <c r="P108">
         <f t="shared" si="6"/>
-        <v>5.057000000000003</v>
-      </c>
-      <c r="Q108" s="350">
+        <v>5.0265482457436779</v>
+      </c>
+      <c r="Q108" s="311">
         <f t="shared" si="7"/>
-        <v>-1.543481965030572</v>
-      </c>
-      <c r="R108" s="358">
+        <v>-1.6180339887498745</v>
+      </c>
+      <c r="R108" s="319">
         <f t="shared" si="4"/>
-        <v>-1.8824138665635068</v>
-      </c>
-      <c r="S108" s="355">
+        <v>-1.9021130325903017</v>
+      </c>
+      <c r="S108" s="316">
         <f t="shared" si="5"/>
-        <v>-2.7860322782578582</v>
+        <v>-3.0776835371751625</v>
       </c>
     </row>
     <row r="109" spans="15:19" x14ac:dyDescent="0.25">
@@ -33275,19 +33279,19 @@
       </c>
       <c r="P109">
         <f t="shared" si="6"/>
-        <v>5.1830000000000034</v>
-      </c>
-      <c r="Q109" s="351">
+        <v>5.1522119518872698</v>
+      </c>
+      <c r="Q109" s="312">
         <f t="shared" si="7"/>
-        <v>-1.1776014344165799</v>
-      </c>
-      <c r="R109" s="359">
+        <v>-1.2748479794973522</v>
+      </c>
+      <c r="R109" s="320">
         <f t="shared" si="4"/>
-        <v>-1.7825827987548235</v>
-      </c>
-      <c r="S109" s="356">
+        <v>-1.8096541049320316</v>
+      </c>
+      <c r="S109" s="317">
         <f t="shared" si="5"/>
-        <v>-1.9656606301622808</v>
+        <v>-2.1251081731571539</v>
       </c>
     </row>
     <row r="110" spans="15:19" x14ac:dyDescent="0.25">
@@ -33296,19 +33300,19 @@
       </c>
       <c r="P110">
         <f t="shared" si="6"/>
-        <v>5.3090000000000037</v>
-      </c>
-      <c r="Q110" s="350">
+        <v>5.2778756580308617</v>
+      </c>
+      <c r="Q110" s="311">
         <f t="shared" si="7"/>
-        <v>-0.73733341400903485</v>
-      </c>
-      <c r="R110" s="358">
+        <v>-0.85155858313011257</v>
+      </c>
+      <c r="R110" s="319">
         <f t="shared" si="4"/>
-        <v>-1.6544888679012122</v>
-      </c>
-      <c r="S110" s="355">
+        <v>-1.6886558510040204</v>
+      </c>
+      <c r="S110" s="316">
         <f t="shared" si="5"/>
-        <v>-1.4723786298540331</v>
+        <v>-1.5757478599686197</v>
       </c>
     </row>
     <row r="111" spans="15:19" x14ac:dyDescent="0.25">
@@ -33317,19 +33321,19 @@
       </c>
       <c r="P111">
         <f t="shared" si="6"/>
-        <v>5.4350000000000041</v>
-      </c>
-      <c r="Q111" s="351">
+        <v>5.4035393641744536</v>
+      </c>
+      <c r="Q111" s="312">
         <f t="shared" si="7"/>
-        <v>-0.25048903915248522</v>
-      </c>
-      <c r="R111" s="359">
+        <v>-0.37476262917141312</v>
+      </c>
+      <c r="R111" s="320">
         <f t="shared" si="4"/>
-        <v>-1.5001630041940393</v>
-      </c>
-      <c r="S111" s="356">
+        <v>-1.5410264855515667</v>
+      </c>
+      <c r="S111" s="317">
         <f t="shared" si="5"/>
-        <v>-1.1341751228437211</v>
+        <v>-1.2087923504095865</v>
       </c>
     </row>
     <row r="112" spans="15:19" x14ac:dyDescent="0.25">
@@ -33338,19 +33342,19 @@
       </c>
       <c r="P112">
         <f t="shared" si="6"/>
-        <v>5.5610000000000044</v>
-      </c>
-      <c r="Q112" s="350">
+        <v>5.5292030703180455</v>
+      </c>
+      <c r="Q112" s="311">
         <f t="shared" si="7"/>
-        <v>0.25217838949694971</v>
-      </c>
-      <c r="R112" s="358">
+        <v>0.12558103905866419</v>
+      </c>
+      <c r="R112" s="319">
         <f t="shared" si="4"/>
-        <v>-1.322052045307994</v>
-      </c>
-      <c r="S112" s="355">
+        <v>-1.3690942118573637</v>
+      </c>
+      <c r="S112" s="316">
         <f t="shared" si="5"/>
-        <v>-0.88094168135166395</v>
+        <v>-0.93906250581747475</v>
       </c>
     </row>
     <row r="113" spans="15:19" x14ac:dyDescent="0.25">
@@ -33359,19 +33363,19 @@
       </c>
       <c r="P113">
         <f t="shared" si="6"/>
-        <v>5.6870000000000047</v>
-      </c>
-      <c r="Q113" s="351">
+        <v>5.6548667764616374</v>
+      </c>
+      <c r="Q113" s="312">
         <f t="shared" si="7"/>
-        <v>0.73891605037724739</v>
-      </c>
-      <c r="R113" s="359">
+        <v>0.61803398874993121</v>
+      </c>
+      <c r="R113" s="320">
         <f t="shared" si="4"/>
-        <v>-1.1229799417722262</v>
-      </c>
-      <c r="S113" s="356">
+        <v>-1.1755705045849307</v>
+      </c>
+      <c r="S113" s="317">
         <f t="shared" si="5"/>
-        <v>-0.67855122459655814</v>
+        <v>-0.72654252800534624</v>
       </c>
     </row>
     <row r="114" spans="15:19" x14ac:dyDescent="0.25">
@@ -33380,19 +33384,19 @@
       </c>
       <c r="P114">
         <f t="shared" si="6"/>
-        <v>5.8130000000000051</v>
-      </c>
-      <c r="Q114" s="350">
+        <v>5.7805304826052293</v>
+      </c>
+      <c r="Q114" s="311">
         <f t="shared" si="7"/>
-        <v>1.1789773838098276</v>
-      </c>
-      <c r="R114" s="358">
+        <v>1.0716535899580262</v>
+      </c>
+      <c r="R114" s="319">
         <f t="shared" si="4"/>
-        <v>-0.90610298321447569</v>
-      </c>
-      <c r="S114" s="355">
+        <v>-0.96350734820341355</v>
+      </c>
+      <c r="S114" s="316">
         <f t="shared" si="5"/>
-        <v>-0.50819904096448887</v>
+        <v>-0.54975465219275743</v>
       </c>
     </row>
     <row r="115" spans="15:19" x14ac:dyDescent="0.25">
@@ -33401,19 +33405,19 @@
       </c>
       <c r="P115">
         <f t="shared" si="6"/>
-        <v>5.9390000000000054</v>
-      </c>
-      <c r="Q115" s="351">
+        <v>5.9061941887488212</v>
+      </c>
+      <c r="Q115" s="312">
         <f t="shared" si="7"/>
-        <v>1.5445643105867863</v>
-      </c>
-      <c r="R115" s="359">
+        <v>1.4579372548428502</v>
+      </c>
+      <c r="R115" s="320">
         <f t="shared" si="4"/>
-        <v>-0.67485975536641218</v>
-      </c>
-      <c r="S115" s="356">
+        <v>-0.73624910536933752</v>
+      </c>
+      <c r="S115" s="317">
         <f t="shared" si="5"/>
-        <v>-0.35845290137796304</v>
+        <v>-0.39592800879770984</v>
       </c>
     </row>
     <row r="116" spans="15:19" x14ac:dyDescent="0.25">
@@ -33422,19 +33426,19 @@
       </c>
       <c r="P116">
         <f t="shared" si="6"/>
-        <v>6.0650000000000057</v>
-      </c>
-      <c r="Q116" s="350">
+        <v>6.0318578948924131</v>
+      </c>
+      <c r="Q116" s="311">
         <f t="shared" si="7"/>
-        <v>1.8125831990348991</v>
-      </c>
-      <c r="R116" s="358">
+        <v>1.7526133600877465</v>
+      </c>
+      <c r="R116" s="319">
         <f t="shared" si="4"/>
-        <v>-0.43291662126222519</v>
-      </c>
-      <c r="S116" s="355">
+        <v>-0.49737977432969005</v>
+      </c>
+      <c r="S116" s="316">
         <f t="shared" si="5"/>
-        <v>-0.22171475463619375</v>
+        <v>-0.25675636036771604</v>
       </c>
     </row>
     <row r="117" spans="15:19" x14ac:dyDescent="0.25">
@@ -33443,19 +33447,19 @@
       </c>
       <c r="P117">
         <f t="shared" si="6"/>
-        <v>6.1910000000000061</v>
-      </c>
-      <c r="Q117" s="351">
+        <v>6.157521601036005</v>
+      </c>
+      <c r="Q117" s="312">
         <f t="shared" si="7"/>
-        <v>1.966103658492073</v>
-      </c>
-      <c r="R117" s="359">
+        <v>1.9371663222572724</v>
+      </c>
+      <c r="R117" s="320">
         <f t="shared" si="4"/>
-        <v>-0.18410959102645097</v>
-      </c>
-      <c r="S117" s="356">
+        <v>-0.25066646712858814</v>
+      </c>
+      <c r="S117" s="317">
         <f t="shared" si="5"/>
-        <v>-9.2447332172630389E-2</v>
+        <v>-0.12632937844609776</v>
       </c>
     </row>
     <row r="118" spans="15:19" x14ac:dyDescent="0.25">
@@ -33464,19 +33468,19 @@
       </c>
       <c r="P118">
         <f t="shared" si="6"/>
-        <v>6.3170000000000064</v>
-      </c>
-      <c r="Q118" s="348">
+        <v>6.2831853071795969</v>
+      </c>
+      <c r="Q118" s="309">
         <f t="shared" si="7"/>
-        <v>1.9954280091854995</v>
-      </c>
-      <c r="R118" s="352">
+        <v>2</v>
+      </c>
+      <c r="R118" s="313">
         <f t="shared" si="4"/>
-        <v>6.7616498094034305E-2</v>
-      </c>
-      <c r="S118" s="353">
+        <v>2.0826222690839558E-14</v>
+      </c>
+      <c r="S118" s="314">
         <f t="shared" si="5"/>
-        <v>3.3827587001537422E-2</v>
+        <v>1.0413111345419779E-14</v>
       </c>
     </row>
   </sheetData>
@@ -33487,7 +33491,8 @@
     <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33509,15 +33514,15 @@
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="342" t="s">
+      <c r="B2" s="361" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="362" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -33525,31 +33530,31 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="343"/>
+      <c r="C5" s="362"/>
       <c r="D5" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="343"/>
+      <c r="C6" s="362"/>
       <c r="D6" s="77" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="343"/>
+      <c r="C7" s="362"/>
       <c r="D7" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="343"/>
+      <c r="C8" s="362"/>
       <c r="D8" s="77" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="343"/>
+      <c r="C9" s="362"/>
       <c r="D9" s="78" t="s">
         <v>37</v>
       </c>
@@ -33558,7 +33563,7 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="343" t="s">
+      <c r="C11" s="362" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="79" t="s">
@@ -33566,20 +33571,20 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="343"/>
+      <c r="C12" s="362"/>
       <c r="D12" s="76" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="343"/>
+      <c r="C13" s="362"/>
       <c r="D13" s="82" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="343" t="s">
+      <c r="C15" s="362" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="75" t="s">
@@ -33587,19 +33592,19 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="343"/>
+      <c r="C16" s="362"/>
       <c r="D16" s="76" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="343"/>
+      <c r="C17" s="362"/>
       <c r="D17" s="81" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="343"/>
+      <c r="C18" s="362"/>
       <c r="D18" s="80" t="s">
         <v>33</v>
       </c>
